--- a/EXCEL FILES/EinSiGvsBilanz.xlsx
+++ b/EXCEL FILES/EinSiGvsBilanz.xlsx
@@ -299,6 +299,12 @@
     <t xml:space="preserve">FUBA AUTOMOTIVE ELECTRONICS GMBH                            </t>
   </si>
   <si>
+    <t>8035727000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LU DAI                                                      </t>
+  </si>
+  <si>
     <t>8035775000</t>
   </si>
   <si>
@@ -545,15 +551,12 @@
     <t xml:space="preserve">GOODCANG LOGISTICS GMBH                                     </t>
   </si>
   <si>
-    <t>8000000018</t>
+    <t>8000000026</t>
   </si>
   <si>
     <t>TIMIC MEDIZINTECHNIK GMBH</t>
   </si>
   <si>
-    <t>8000000026</t>
-  </si>
-  <si>
     <t>8000000042</t>
   </si>
   <si>
@@ -707,19 +710,7 @@
     <t>FUBA AUTOMOTIVE ELECTRONICS GMBH</t>
   </si>
   <si>
-    <t>8000000539</t>
-  </si>
-  <si>
-    <t>COFCO (EUROPE) GMBH</t>
-  </si>
-  <si>
-    <t>8000000571</t>
-  </si>
-  <si>
-    <t>HENGTONG ENERGYLINK GMBH</t>
-  </si>
-  <si>
-    <t>3540</t>
+    <t>3560</t>
   </si>
   <si>
     <t>710502106062000000080001</t>
@@ -744,9 +735,6 @@
   </si>
   <si>
     <t>REPUBLIC OF SLOVENIA - MINISTRY OF FINANCE</t>
-  </si>
-  <si>
-    <t>710502106062000000100001</t>
   </si>
   <si>
     <t>3600</t>
@@ -1231,45 +1219,45 @@
         <v>21</v>
       </c>
       <c r="F2" s="9">
-        <v>5318.0100000000002</v>
+        <v>182.97</v>
       </c>
       <c r="G2" s="9">
         <v>0</v>
       </c>
       <c r="H2" s="9">
-        <f t="shared" ref="H2:H121" si="0">F2+G2</f>
-        <v>5318.0100000000002</v>
+        <f t="shared" ref="H2:H118" si="0">F2+G2</f>
+        <v>182.97</v>
       </c>
       <c r="I2" s="10">
         <v>1</v>
       </c>
       <c r="J2" s="9">
-        <f t="shared" ref="J2:J121" si="1">ROUND(H2/I2,2)</f>
-        <v>5318.0100000000002</v>
+        <f t="shared" ref="J2:J118" si="1">ROUND(H2/I2,2)</f>
+        <v>182.97</v>
       </c>
       <c r="K2" s="9">
-        <v>5318.0100000000002</v>
+        <v>182.97</v>
       </c>
       <c r="L2" s="9">
         <v>0</v>
       </c>
       <c r="M2" s="9">
-        <f t="shared" ref="M2:M121" si="2">K2+L2</f>
-        <v>5318.0100000000002</v>
+        <f t="shared" ref="M2:M118" si="2">K2+L2</f>
+        <v>182.97</v>
       </c>
       <c r="N2" s="10">
         <v>1</v>
       </c>
       <c r="O2" s="9">
-        <f t="shared" ref="O2:O121" si="3">ROUND(M2/N2,2)</f>
-        <v>5318.0100000000002</v>
+        <f t="shared" ref="O2:O118" si="3">ROUND(M2/N2,2)</f>
+        <v>182.97</v>
       </c>
       <c r="P2" s="10">
-        <f t="shared" ref="P2:P121" si="4">J2-O2</f>
+        <f t="shared" ref="P2:P118" si="4">J2-O2</f>
         <v>0</v>
       </c>
       <c r="Q2" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1">
@@ -1289,45 +1277,45 @@
         <v>21</v>
       </c>
       <c r="F3" s="9">
-        <v>74378.029999999999</v>
+        <v>74458.029999999999</v>
       </c>
       <c r="G3" s="9">
         <v>0</v>
       </c>
       <c r="H3" s="9">
         <f t="shared" si="0"/>
-        <v>74378.029999999999</v>
+        <v>74458.029999999999</v>
       </c>
       <c r="I3" s="10">
         <v>1</v>
       </c>
       <c r="J3" s="9">
         <f t="shared" si="1"/>
-        <v>74378.029999999999</v>
+        <v>74458.029999999999</v>
       </c>
       <c r="K3" s="9">
-        <v>74378.029999999999</v>
+        <v>74458.029999999999</v>
       </c>
       <c r="L3" s="9">
         <v>0</v>
       </c>
       <c r="M3" s="9">
         <f t="shared" si="2"/>
-        <v>74378.029999999999</v>
+        <v>74458.029999999999</v>
       </c>
       <c r="N3" s="10">
         <v>1</v>
       </c>
       <c r="O3" s="9">
         <f t="shared" si="3"/>
-        <v>74378.029999999999</v>
+        <v>74458.029999999999</v>
       </c>
       <c r="P3" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q3" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1">
@@ -1357,11 +1345,11 @@
         <v>3297.4499999999998</v>
       </c>
       <c r="I4" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J4" s="9">
         <f t="shared" si="1"/>
-        <v>2955.3699999999999</v>
+        <v>2936.29</v>
       </c>
       <c r="K4" s="9">
         <v>3297.4499999999998</v>
@@ -1374,18 +1362,18 @@
         <v>3297.4499999999998</v>
       </c>
       <c r="N4" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O4" s="9">
         <f t="shared" si="3"/>
-        <v>2957.0900000000001</v>
+        <v>2934.98</v>
       </c>
       <c r="P4" s="10">
         <f t="shared" si="4"/>
-        <v>-1.7200000000002547</v>
+        <v>1.3099999999999454</v>
       </c>
       <c r="Q4" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1">
@@ -1405,45 +1393,45 @@
         <v>21</v>
       </c>
       <c r="F5" s="9">
-        <v>312794.39000000001</v>
+        <v>190624.04000000001</v>
       </c>
       <c r="G5" s="9">
         <v>0</v>
       </c>
       <c r="H5" s="9">
         <f t="shared" si="0"/>
-        <v>312794.39000000001</v>
+        <v>190624.04000000001</v>
       </c>
       <c r="I5" s="10">
         <v>1</v>
       </c>
       <c r="J5" s="9">
         <f t="shared" si="1"/>
-        <v>312794.39000000001</v>
+        <v>190624.04000000001</v>
       </c>
       <c r="K5" s="9">
-        <v>312794.39000000001</v>
+        <v>190624.04000000001</v>
       </c>
       <c r="L5" s="9">
         <v>0</v>
       </c>
       <c r="M5" s="9">
         <f t="shared" si="2"/>
-        <v>312794.39000000001</v>
+        <v>190624.04000000001</v>
       </c>
       <c r="N5" s="10">
         <v>1</v>
       </c>
       <c r="O5" s="9">
         <f t="shared" si="3"/>
-        <v>312794.39000000001</v>
+        <v>190624.04000000001</v>
       </c>
       <c r="P5" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q5" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1">
@@ -1463,45 +1451,45 @@
         <v>21</v>
       </c>
       <c r="F6" s="9">
-        <v>1813971.6299999999</v>
+        <v>9792.8199999999997</v>
       </c>
       <c r="G6" s="9">
         <v>0</v>
       </c>
       <c r="H6" s="9">
         <f t="shared" si="0"/>
-        <v>1813971.6299999999</v>
+        <v>9792.8199999999997</v>
       </c>
       <c r="I6" s="10">
         <v>1</v>
       </c>
       <c r="J6" s="9">
         <f t="shared" si="1"/>
-        <v>1813971.6299999999</v>
+        <v>9792.8199999999997</v>
       </c>
       <c r="K6" s="9">
-        <v>1813971.6299999999</v>
+        <v>9792.8199999999997</v>
       </c>
       <c r="L6" s="9">
         <v>0</v>
       </c>
       <c r="M6" s="9">
         <f t="shared" si="2"/>
-        <v>1813971.6299999999</v>
+        <v>9792.8199999999997</v>
       </c>
       <c r="N6" s="10">
         <v>1</v>
       </c>
       <c r="O6" s="9">
         <f t="shared" si="3"/>
-        <v>1813971.6299999999</v>
+        <v>9792.8199999999997</v>
       </c>
       <c r="P6" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q6" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1">
@@ -1521,45 +1509,45 @@
         <v>21</v>
       </c>
       <c r="F7" s="9">
-        <v>1545004.79</v>
+        <v>1276003.78</v>
       </c>
       <c r="G7" s="9">
         <v>0</v>
       </c>
       <c r="H7" s="9">
         <f t="shared" si="0"/>
-        <v>1545004.79</v>
+        <v>1276003.78</v>
       </c>
       <c r="I7" s="10">
         <v>1</v>
       </c>
       <c r="J7" s="9">
         <f t="shared" si="1"/>
-        <v>1545004.79</v>
+        <v>1276003.78</v>
       </c>
       <c r="K7" s="9">
-        <v>1545004.79</v>
+        <v>1276003.78</v>
       </c>
       <c r="L7" s="9">
         <v>0</v>
       </c>
       <c r="M7" s="9">
         <f t="shared" si="2"/>
-        <v>1545004.79</v>
+        <v>1276003.78</v>
       </c>
       <c r="N7" s="10">
         <v>1</v>
       </c>
       <c r="O7" s="9">
         <f t="shared" si="3"/>
-        <v>1545004.79</v>
+        <v>1276003.78</v>
       </c>
       <c r="P7" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q7" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1">
@@ -1579,45 +1567,45 @@
         <v>21</v>
       </c>
       <c r="F8" s="9">
-        <v>158152.91</v>
+        <v>158172.91</v>
       </c>
       <c r="G8" s="9">
         <v>0</v>
       </c>
       <c r="H8" s="9">
         <f t="shared" si="0"/>
-        <v>158152.91</v>
+        <v>158172.91</v>
       </c>
       <c r="I8" s="10">
         <v>1</v>
       </c>
       <c r="J8" s="9">
         <f t="shared" si="1"/>
-        <v>158152.91</v>
+        <v>158172.91</v>
       </c>
       <c r="K8" s="9">
-        <v>158152.91</v>
+        <v>158172.91</v>
       </c>
       <c r="L8" s="9">
         <v>0</v>
       </c>
       <c r="M8" s="9">
         <f t="shared" si="2"/>
-        <v>158152.91</v>
+        <v>158172.91</v>
       </c>
       <c r="N8" s="10">
         <v>1</v>
       </c>
       <c r="O8" s="9">
         <f t="shared" si="3"/>
-        <v>158152.91</v>
+        <v>158172.91</v>
       </c>
       <c r="P8" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q8" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1">
@@ -1637,45 +1625,45 @@
         <v>21</v>
       </c>
       <c r="F9" s="9">
-        <v>74048.039999999994</v>
+        <v>51152.790000000001</v>
       </c>
       <c r="G9" s="9">
         <v>0</v>
       </c>
       <c r="H9" s="9">
         <f t="shared" si="0"/>
-        <v>74048.039999999994</v>
+        <v>51152.790000000001</v>
       </c>
       <c r="I9" s="10">
         <v>1</v>
       </c>
       <c r="J9" s="9">
         <f t="shared" si="1"/>
-        <v>74048.039999999994</v>
+        <v>51152.790000000001</v>
       </c>
       <c r="K9" s="9">
-        <v>74048.039999999994</v>
+        <v>51152.790000000001</v>
       </c>
       <c r="L9" s="9">
         <v>0</v>
       </c>
       <c r="M9" s="9">
         <f t="shared" si="2"/>
-        <v>74048.039999999994</v>
+        <v>51152.790000000001</v>
       </c>
       <c r="N9" s="10">
         <v>1</v>
       </c>
       <c r="O9" s="9">
         <f t="shared" si="3"/>
-        <v>74048.039999999994</v>
+        <v>51152.790000000001</v>
       </c>
       <c r="P9" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q9" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1">
@@ -1695,45 +1683,45 @@
         <v>25</v>
       </c>
       <c r="F10" s="9">
-        <v>309045.46000000002</v>
+        <v>17150.459999999999</v>
       </c>
       <c r="G10" s="9">
         <v>0</v>
       </c>
       <c r="H10" s="9">
         <f t="shared" si="0"/>
-        <v>309045.46000000002</v>
+        <v>17150.459999999999</v>
       </c>
       <c r="I10" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J10" s="9">
         <f t="shared" si="1"/>
-        <v>276984.5</v>
+        <v>15272</v>
       </c>
       <c r="K10" s="9">
-        <v>309045.46000000002</v>
+        <v>17150.459999999999</v>
       </c>
       <c r="L10" s="9">
         <v>0</v>
       </c>
       <c r="M10" s="9">
         <f t="shared" si="2"/>
-        <v>309045.46000000002</v>
+        <v>17150.459999999999</v>
       </c>
       <c r="N10" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O10" s="9">
         <f t="shared" si="3"/>
-        <v>277145.96000000002</v>
+        <v>15265.209999999999</v>
       </c>
       <c r="P10" s="10">
         <f t="shared" si="4"/>
-        <v>-161.46000000002096</v>
+        <v>6.7900000000008731</v>
       </c>
       <c r="Q10" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1">
@@ -1763,11 +1751,11 @@
         <v>15666.950000000001</v>
       </c>
       <c r="I11" s="10">
-        <v>1.1216999999999999</v>
+        <v>1.1174</v>
       </c>
       <c r="J11" s="9">
         <f t="shared" si="1"/>
-        <v>13967.15</v>
+        <v>14020.9</v>
       </c>
       <c r="K11" s="9">
         <v>15666.950000000001</v>
@@ -1780,18 +1768,18 @@
         <v>15666.950000000001</v>
       </c>
       <c r="N11" s="10">
-        <v>1.1214</v>
+        <v>1.1181000000000001</v>
       </c>
       <c r="O11" s="9">
         <f t="shared" si="3"/>
-        <v>13970.879999999999</v>
+        <v>14012.120000000001</v>
       </c>
       <c r="P11" s="10">
         <f t="shared" si="4"/>
-        <v>-3.7299999999995634</v>
+        <v>8.7799999999988358</v>
       </c>
       <c r="Q11" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1">
@@ -1811,45 +1799,45 @@
         <v>21</v>
       </c>
       <c r="F12" s="9">
-        <v>461.94</v>
+        <v>511.94</v>
       </c>
       <c r="G12" s="9">
         <v>0</v>
       </c>
       <c r="H12" s="9">
         <f t="shared" si="0"/>
-        <v>461.94</v>
+        <v>511.94</v>
       </c>
       <c r="I12" s="10">
         <v>1</v>
       </c>
       <c r="J12" s="9">
         <f t="shared" si="1"/>
-        <v>461.94</v>
+        <v>511.94</v>
       </c>
       <c r="K12" s="9">
-        <v>461.94</v>
+        <v>511.94</v>
       </c>
       <c r="L12" s="9">
         <v>0</v>
       </c>
       <c r="M12" s="9">
         <f t="shared" si="2"/>
-        <v>461.94</v>
+        <v>511.94</v>
       </c>
       <c r="N12" s="10">
         <v>1</v>
       </c>
       <c r="O12" s="9">
         <f t="shared" si="3"/>
-        <v>461.94</v>
+        <v>511.94</v>
       </c>
       <c r="P12" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q12" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1">
@@ -1869,45 +1857,45 @@
         <v>21</v>
       </c>
       <c r="F13" s="9">
-        <v>670478.03000000003</v>
+        <v>707293.85999999999</v>
       </c>
       <c r="G13" s="9">
         <v>0</v>
       </c>
       <c r="H13" s="9">
         <f t="shared" si="0"/>
-        <v>670478.03000000003</v>
+        <v>707293.85999999999</v>
       </c>
       <c r="I13" s="10">
         <v>1</v>
       </c>
       <c r="J13" s="9">
         <f t="shared" si="1"/>
-        <v>670478.03000000003</v>
+        <v>707293.85999999999</v>
       </c>
       <c r="K13" s="9">
-        <v>670478.03000000003</v>
+        <v>707293.85999999999</v>
       </c>
       <c r="L13" s="9">
         <v>0</v>
       </c>
       <c r="M13" s="9">
         <f t="shared" si="2"/>
-        <v>670478.03000000003</v>
+        <v>707293.85999999999</v>
       </c>
       <c r="N13" s="10">
         <v>1</v>
       </c>
       <c r="O13" s="9">
         <f t="shared" si="3"/>
-        <v>670478.03000000003</v>
+        <v>707293.85999999999</v>
       </c>
       <c r="P13" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q13" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1">
@@ -1927,45 +1915,45 @@
         <v>25</v>
       </c>
       <c r="F14" s="9">
-        <v>937.59000000000003</v>
+        <v>32937.589999999997</v>
       </c>
       <c r="G14" s="9">
         <v>0</v>
       </c>
       <c r="H14" s="9">
         <f t="shared" si="0"/>
-        <v>937.59000000000003</v>
+        <v>32937.589999999997</v>
       </c>
       <c r="I14" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J14" s="9">
         <f t="shared" si="1"/>
-        <v>840.32000000000005</v>
+        <v>29330</v>
       </c>
       <c r="K14" s="9">
-        <v>937.59000000000003</v>
+        <v>32937.589999999997</v>
       </c>
       <c r="L14" s="9">
         <v>0</v>
       </c>
       <c r="M14" s="9">
         <f t="shared" si="2"/>
-        <v>937.59000000000003</v>
+        <v>32937.589999999997</v>
       </c>
       <c r="N14" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O14" s="9">
         <f t="shared" si="3"/>
-        <v>840.80999999999995</v>
+        <v>29316.950000000001</v>
       </c>
       <c r="P14" s="10">
         <f t="shared" si="4"/>
-        <v>-0.48999999999989541</v>
+        <v>13.049999999999272</v>
       </c>
       <c r="Q14" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1">
@@ -1985,45 +1973,45 @@
         <v>21</v>
       </c>
       <c r="F15" s="9">
-        <v>372573.81</v>
+        <v>91108.410000000003</v>
       </c>
       <c r="G15" s="9">
         <v>0</v>
       </c>
       <c r="H15" s="9">
         <f t="shared" si="0"/>
-        <v>372573.81</v>
+        <v>91108.410000000003</v>
       </c>
       <c r="I15" s="10">
         <v>1</v>
       </c>
       <c r="J15" s="9">
         <f t="shared" si="1"/>
-        <v>372573.81</v>
+        <v>91108.410000000003</v>
       </c>
       <c r="K15" s="9">
-        <v>372573.81</v>
+        <v>91108.410000000003</v>
       </c>
       <c r="L15" s="9">
         <v>0</v>
       </c>
       <c r="M15" s="9">
         <f t="shared" si="2"/>
-        <v>372573.81</v>
+        <v>91108.410000000003</v>
       </c>
       <c r="N15" s="10">
         <v>1</v>
       </c>
       <c r="O15" s="9">
         <f t="shared" si="3"/>
-        <v>372573.81</v>
+        <v>91108.410000000003</v>
       </c>
       <c r="P15" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q15" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1">
@@ -2043,45 +2031,45 @@
         <v>21</v>
       </c>
       <c r="F16" s="9">
-        <v>180187.56</v>
+        <v>39268.269999999997</v>
       </c>
       <c r="G16" s="9">
         <v>0</v>
       </c>
       <c r="H16" s="9">
         <f t="shared" si="0"/>
-        <v>180187.56</v>
+        <v>39268.269999999997</v>
       </c>
       <c r="I16" s="10">
         <v>1</v>
       </c>
       <c r="J16" s="9">
         <f t="shared" si="1"/>
-        <v>180187.56</v>
+        <v>39268.269999999997</v>
       </c>
       <c r="K16" s="9">
-        <v>180187.56</v>
+        <v>39268.269999999997</v>
       </c>
       <c r="L16" s="9">
         <v>0</v>
       </c>
       <c r="M16" s="9">
         <f t="shared" si="2"/>
-        <v>180187.56</v>
+        <v>39268.269999999997</v>
       </c>
       <c r="N16" s="10">
         <v>1</v>
       </c>
       <c r="O16" s="9">
         <f t="shared" si="3"/>
-        <v>180187.56</v>
+        <v>39268.269999999997</v>
       </c>
       <c r="P16" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q16" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1">
@@ -2101,45 +2089,45 @@
         <v>21</v>
       </c>
       <c r="F17" s="9">
-        <v>23318.43</v>
+        <v>24294.060000000001</v>
       </c>
       <c r="G17" s="9">
         <v>0</v>
       </c>
       <c r="H17" s="9">
         <f t="shared" si="0"/>
-        <v>23318.43</v>
+        <v>24294.060000000001</v>
       </c>
       <c r="I17" s="10">
         <v>1</v>
       </c>
       <c r="J17" s="9">
         <f t="shared" si="1"/>
-        <v>23318.43</v>
+        <v>24294.060000000001</v>
       </c>
       <c r="K17" s="9">
-        <v>23318.43</v>
+        <v>24294.060000000001</v>
       </c>
       <c r="L17" s="9">
         <v>0</v>
       </c>
       <c r="M17" s="9">
         <f t="shared" si="2"/>
-        <v>23318.43</v>
+        <v>24294.060000000001</v>
       </c>
       <c r="N17" s="10">
         <v>1</v>
       </c>
       <c r="O17" s="9">
         <f t="shared" si="3"/>
-        <v>23318.43</v>
+        <v>24294.060000000001</v>
       </c>
       <c r="P17" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q17" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1">
@@ -2159,45 +2147,45 @@
         <v>21</v>
       </c>
       <c r="F18" s="9">
-        <v>552.40999999999997</v>
+        <v>592.40999999999997</v>
       </c>
       <c r="G18" s="9">
         <v>0</v>
       </c>
       <c r="H18" s="9">
         <f t="shared" si="0"/>
-        <v>552.40999999999997</v>
+        <v>592.40999999999997</v>
       </c>
       <c r="I18" s="10">
         <v>1</v>
       </c>
       <c r="J18" s="9">
         <f t="shared" si="1"/>
-        <v>552.40999999999997</v>
+        <v>592.40999999999997</v>
       </c>
       <c r="K18" s="9">
-        <v>552.40999999999997</v>
+        <v>592.40999999999997</v>
       </c>
       <c r="L18" s="9">
         <v>0</v>
       </c>
       <c r="M18" s="9">
         <f t="shared" si="2"/>
-        <v>552.40999999999997</v>
+        <v>592.40999999999997</v>
       </c>
       <c r="N18" s="10">
         <v>1</v>
       </c>
       <c r="O18" s="9">
         <f t="shared" si="3"/>
-        <v>552.40999999999997</v>
+        <v>592.40999999999997</v>
       </c>
       <c r="P18" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q18" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1">
@@ -2217,45 +2205,45 @@
         <v>21</v>
       </c>
       <c r="F19" s="9">
-        <v>8892.25</v>
+        <v>8972.25</v>
       </c>
       <c r="G19" s="9">
         <v>0</v>
       </c>
       <c r="H19" s="9">
         <f t="shared" si="0"/>
-        <v>8892.25</v>
+        <v>8972.25</v>
       </c>
       <c r="I19" s="10">
         <v>1</v>
       </c>
       <c r="J19" s="9">
         <f t="shared" si="1"/>
-        <v>8892.25</v>
+        <v>8972.25</v>
       </c>
       <c r="K19" s="9">
-        <v>8892.25</v>
+        <v>8972.25</v>
       </c>
       <c r="L19" s="9">
         <v>0</v>
       </c>
       <c r="M19" s="9">
         <f t="shared" si="2"/>
-        <v>8892.25</v>
+        <v>8972.25</v>
       </c>
       <c r="N19" s="10">
         <v>1</v>
       </c>
       <c r="O19" s="9">
         <f t="shared" si="3"/>
-        <v>8892.25</v>
+        <v>8972.25</v>
       </c>
       <c r="P19" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q19" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1">
@@ -2275,45 +2263,45 @@
         <v>21</v>
       </c>
       <c r="F20" s="9">
-        <v>767.08000000000004</v>
+        <v>807.08000000000004</v>
       </c>
       <c r="G20" s="9">
         <v>0</v>
       </c>
       <c r="H20" s="9">
         <f t="shared" si="0"/>
-        <v>767.08000000000004</v>
+        <v>807.08000000000004</v>
       </c>
       <c r="I20" s="10">
         <v>1</v>
       </c>
       <c r="J20" s="9">
         <f t="shared" si="1"/>
-        <v>767.08000000000004</v>
+        <v>807.08000000000004</v>
       </c>
       <c r="K20" s="9">
-        <v>767.08000000000004</v>
+        <v>807.08000000000004</v>
       </c>
       <c r="L20" s="9">
         <v>0</v>
       </c>
       <c r="M20" s="9">
         <f t="shared" si="2"/>
-        <v>767.08000000000004</v>
+        <v>807.08000000000004</v>
       </c>
       <c r="N20" s="10">
         <v>1</v>
       </c>
       <c r="O20" s="9">
         <f t="shared" si="3"/>
-        <v>767.08000000000004</v>
+        <v>807.08000000000004</v>
       </c>
       <c r="P20" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q20" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1">
@@ -2333,45 +2321,45 @@
         <v>25</v>
       </c>
       <c r="F21" s="9">
-        <v>8224.1599999999999</v>
+        <v>3945.7600000000002</v>
       </c>
       <c r="G21" s="9">
         <v>0</v>
       </c>
       <c r="H21" s="9">
         <f t="shared" si="0"/>
-        <v>8224.1599999999999</v>
+        <v>3945.7600000000002</v>
       </c>
       <c r="I21" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J21" s="9">
         <f t="shared" si="1"/>
-        <v>7370.9700000000003</v>
+        <v>3513.5900000000001</v>
       </c>
       <c r="K21" s="9">
-        <v>8224.1599999999999</v>
+        <v>3945.7600000000002</v>
       </c>
       <c r="L21" s="9">
         <v>0</v>
       </c>
       <c r="M21" s="9">
         <f t="shared" si="2"/>
-        <v>8224.1599999999999</v>
+        <v>3945.7600000000002</v>
       </c>
       <c r="N21" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O21" s="9">
         <f t="shared" si="3"/>
-        <v>7375.2700000000004</v>
+        <v>3512.02</v>
       </c>
       <c r="P21" s="10">
         <f t="shared" si="4"/>
-        <v>-4.3000000000001819</v>
+        <v>1.5700000000001637</v>
       </c>
       <c r="Q21" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1">
@@ -2429,7 +2417,7 @@
         <v>0</v>
       </c>
       <c r="Q22" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1">
@@ -2449,45 +2437,45 @@
         <v>21</v>
       </c>
       <c r="F23" s="9">
-        <v>106267.03</v>
+        <v>106287.03</v>
       </c>
       <c r="G23" s="9">
         <v>0</v>
       </c>
       <c r="H23" s="9">
         <f t="shared" si="0"/>
-        <v>106267.03</v>
+        <v>106287.03</v>
       </c>
       <c r="I23" s="10">
         <v>1</v>
       </c>
       <c r="J23" s="9">
         <f t="shared" si="1"/>
-        <v>106267.03</v>
+        <v>106287.03</v>
       </c>
       <c r="K23" s="9">
-        <v>106267.03</v>
+        <v>106287.03</v>
       </c>
       <c r="L23" s="9">
         <v>0</v>
       </c>
       <c r="M23" s="9">
         <f t="shared" si="2"/>
-        <v>106267.03</v>
+        <v>106287.03</v>
       </c>
       <c r="N23" s="10">
         <v>1</v>
       </c>
       <c r="O23" s="9">
         <f t="shared" si="3"/>
-        <v>106267.03</v>
+        <v>106287.03</v>
       </c>
       <c r="P23" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q23" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="24" ht="17.25" customHeight="1">
@@ -2507,45 +2495,45 @@
         <v>21</v>
       </c>
       <c r="F24" s="9">
-        <v>25888.880000000001</v>
+        <v>26018.880000000001</v>
       </c>
       <c r="G24" s="9">
         <v>0</v>
       </c>
       <c r="H24" s="9">
         <f t="shared" si="0"/>
-        <v>25888.880000000001</v>
+        <v>26018.880000000001</v>
       </c>
       <c r="I24" s="10">
         <v>1</v>
       </c>
       <c r="J24" s="9">
         <f t="shared" si="1"/>
-        <v>25888.880000000001</v>
+        <v>26018.880000000001</v>
       </c>
       <c r="K24" s="9">
-        <v>25888.880000000001</v>
+        <v>26018.880000000001</v>
       </c>
       <c r="L24" s="9">
         <v>0</v>
       </c>
       <c r="M24" s="9">
         <f t="shared" si="2"/>
-        <v>25888.880000000001</v>
+        <v>26018.880000000001</v>
       </c>
       <c r="N24" s="10">
         <v>1</v>
       </c>
       <c r="O24" s="9">
         <f t="shared" si="3"/>
-        <v>25888.880000000001</v>
+        <v>26018.880000000001</v>
       </c>
       <c r="P24" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q24" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="25" ht="17.25" customHeight="1">
@@ -2565,45 +2553,45 @@
         <v>21</v>
       </c>
       <c r="F25" s="9">
-        <v>689210.16000000003</v>
+        <v>8337.3500000000004</v>
       </c>
       <c r="G25" s="9">
         <v>0</v>
       </c>
       <c r="H25" s="9">
         <f t="shared" si="0"/>
-        <v>689210.16000000003</v>
+        <v>8337.3500000000004</v>
       </c>
       <c r="I25" s="10">
         <v>1</v>
       </c>
       <c r="J25" s="9">
         <f t="shared" si="1"/>
-        <v>689210.16000000003</v>
+        <v>8337.3500000000004</v>
       </c>
       <c r="K25" s="9">
-        <v>689210.16000000003</v>
+        <v>8337.3500000000004</v>
       </c>
       <c r="L25" s="9">
         <v>0</v>
       </c>
       <c r="M25" s="9">
         <f t="shared" si="2"/>
-        <v>689210.16000000003</v>
+        <v>8337.3500000000004</v>
       </c>
       <c r="N25" s="10">
         <v>1</v>
       </c>
       <c r="O25" s="9">
         <f t="shared" si="3"/>
-        <v>689210.16000000003</v>
+        <v>8337.3500000000004</v>
       </c>
       <c r="P25" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q25" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="26" ht="17.25" customHeight="1">
@@ -2633,11 +2621,11 @@
         <v>44145.779999999999</v>
       </c>
       <c r="I26" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J26" s="9">
         <f t="shared" si="1"/>
-        <v>39566.010000000002</v>
+        <v>39310.580000000002</v>
       </c>
       <c r="K26" s="9">
         <v>44145.779999999999</v>
@@ -2650,18 +2638,18 @@
         <v>44145.779999999999</v>
       </c>
       <c r="N26" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O26" s="9">
         <f t="shared" si="3"/>
-        <v>39589.080000000002</v>
+        <v>39293.080000000002</v>
       </c>
       <c r="P26" s="10">
         <f t="shared" si="4"/>
-        <v>-23.069999999999709</v>
+        <v>17.5</v>
       </c>
       <c r="Q26" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="27" ht="17.25" customHeight="1">
@@ -2681,45 +2669,45 @@
         <v>21</v>
       </c>
       <c r="F27" s="9">
-        <v>19687.400000000001</v>
+        <v>19817.400000000001</v>
       </c>
       <c r="G27" s="9">
         <v>0</v>
       </c>
       <c r="H27" s="9">
         <f t="shared" si="0"/>
-        <v>19687.400000000001</v>
+        <v>19817.400000000001</v>
       </c>
       <c r="I27" s="10">
         <v>1</v>
       </c>
       <c r="J27" s="9">
         <f t="shared" si="1"/>
-        <v>19687.400000000001</v>
+        <v>19817.400000000001</v>
       </c>
       <c r="K27" s="9">
-        <v>19687.400000000001</v>
+        <v>19817.400000000001</v>
       </c>
       <c r="L27" s="9">
         <v>0</v>
       </c>
       <c r="M27" s="9">
         <f t="shared" si="2"/>
-        <v>19687.400000000001</v>
+        <v>19817.400000000001</v>
       </c>
       <c r="N27" s="10">
         <v>1</v>
       </c>
       <c r="O27" s="9">
         <f t="shared" si="3"/>
-        <v>19687.400000000001</v>
+        <v>19817.400000000001</v>
       </c>
       <c r="P27" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q27" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="28" ht="17.25" customHeight="1">
@@ -2777,7 +2765,7 @@
         <v>0</v>
       </c>
       <c r="Q28" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="29" ht="17.25" customHeight="1">
@@ -2807,11 +2795,11 @@
         <v>8921.0699999999997</v>
       </c>
       <c r="I29" s="10">
-        <v>7.7439</v>
+        <v>7.5395000000000003</v>
       </c>
       <c r="J29" s="9">
         <f t="shared" si="1"/>
-        <v>1152.01</v>
+        <v>1183.24</v>
       </c>
       <c r="K29" s="9">
         <v>8921.0699999999997</v>
@@ -2824,18 +2812,18 @@
         <v>8921.0699999999997</v>
       </c>
       <c r="N29" s="10">
-        <v>7.7045000000000003</v>
+        <v>7.5396999999999998</v>
       </c>
       <c r="O29" s="9">
         <f t="shared" si="3"/>
-        <v>1157.9000000000001</v>
+        <v>1183.21</v>
       </c>
       <c r="P29" s="10">
         <f t="shared" si="4"/>
-        <v>-5.8900000000001</v>
+        <v>0.029999999999972715</v>
       </c>
       <c r="Q29" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="30" ht="17.25" customHeight="1">
@@ -2855,45 +2843,45 @@
         <v>21</v>
       </c>
       <c r="F30" s="9">
-        <v>5108.1800000000003</v>
+        <v>25822.849999999999</v>
       </c>
       <c r="G30" s="9">
         <v>0</v>
       </c>
       <c r="H30" s="9">
         <f t="shared" si="0"/>
-        <v>5108.1800000000003</v>
+        <v>25822.849999999999</v>
       </c>
       <c r="I30" s="10">
         <v>1</v>
       </c>
       <c r="J30" s="9">
         <f t="shared" si="1"/>
-        <v>5108.1800000000003</v>
+        <v>25822.849999999999</v>
       </c>
       <c r="K30" s="9">
-        <v>5108.1800000000003</v>
+        <v>25822.849999999999</v>
       </c>
       <c r="L30" s="9">
         <v>0</v>
       </c>
       <c r="M30" s="9">
         <f t="shared" si="2"/>
-        <v>5108.1800000000003</v>
+        <v>25822.849999999999</v>
       </c>
       <c r="N30" s="10">
         <v>1</v>
       </c>
       <c r="O30" s="9">
         <f t="shared" si="3"/>
-        <v>5108.1800000000003</v>
+        <v>25822.849999999999</v>
       </c>
       <c r="P30" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q30" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="31" ht="17.25" customHeight="1">
@@ -2913,45 +2901,45 @@
         <v>21</v>
       </c>
       <c r="F31" s="9">
-        <v>3573.6500000000001</v>
+        <v>531.62</v>
       </c>
       <c r="G31" s="9">
         <v>0</v>
       </c>
       <c r="H31" s="9">
         <f t="shared" si="0"/>
-        <v>3573.6500000000001</v>
+        <v>531.62</v>
       </c>
       <c r="I31" s="10">
         <v>1</v>
       </c>
       <c r="J31" s="9">
         <f t="shared" si="1"/>
-        <v>3573.6500000000001</v>
+        <v>531.62</v>
       </c>
       <c r="K31" s="9">
-        <v>3573.6500000000001</v>
+        <v>531.62</v>
       </c>
       <c r="L31" s="9">
         <v>0</v>
       </c>
       <c r="M31" s="9">
         <f t="shared" si="2"/>
-        <v>3573.6500000000001</v>
+        <v>531.62</v>
       </c>
       <c r="N31" s="10">
         <v>1</v>
       </c>
       <c r="O31" s="9">
         <f t="shared" si="3"/>
-        <v>3573.6500000000001</v>
+        <v>531.62</v>
       </c>
       <c r="P31" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q31" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="32" ht="17.25" customHeight="1">
@@ -3009,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="Q32" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="33" ht="17.25" customHeight="1">
@@ -3029,45 +3017,45 @@
         <v>21</v>
       </c>
       <c r="F33" s="9">
-        <v>55354.68</v>
+        <v>40953.779999999999</v>
       </c>
       <c r="G33" s="9">
         <v>0</v>
       </c>
       <c r="H33" s="9">
         <f t="shared" si="0"/>
-        <v>55354.68</v>
+        <v>40953.779999999999</v>
       </c>
       <c r="I33" s="10">
         <v>1</v>
       </c>
       <c r="J33" s="9">
         <f t="shared" si="1"/>
-        <v>55354.68</v>
+        <v>40953.779999999999</v>
       </c>
       <c r="K33" s="9">
-        <v>55354.68</v>
+        <v>40953.779999999999</v>
       </c>
       <c r="L33" s="9">
         <v>0</v>
       </c>
       <c r="M33" s="9">
         <f t="shared" si="2"/>
-        <v>55354.68</v>
+        <v>40953.779999999999</v>
       </c>
       <c r="N33" s="10">
         <v>1</v>
       </c>
       <c r="O33" s="9">
         <f t="shared" si="3"/>
-        <v>55354.68</v>
+        <v>40953.779999999999</v>
       </c>
       <c r="P33" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q33" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="34" ht="17.25" customHeight="1">
@@ -3087,45 +3075,45 @@
         <v>21</v>
       </c>
       <c r="F34" s="9">
-        <v>945144.45999999996</v>
+        <v>352374.06</v>
       </c>
       <c r="G34" s="9">
         <v>0</v>
       </c>
       <c r="H34" s="9">
         <f t="shared" si="0"/>
-        <v>945144.45999999996</v>
+        <v>352374.06</v>
       </c>
       <c r="I34" s="10">
         <v>1</v>
       </c>
       <c r="J34" s="9">
         <f t="shared" si="1"/>
-        <v>945144.45999999996</v>
+        <v>352374.06</v>
       </c>
       <c r="K34" s="9">
-        <v>945144.45999999996</v>
+        <v>352374.06</v>
       </c>
       <c r="L34" s="9">
         <v>0</v>
       </c>
       <c r="M34" s="9">
         <f t="shared" si="2"/>
-        <v>945144.45999999996</v>
+        <v>352374.06</v>
       </c>
       <c r="N34" s="10">
         <v>1</v>
       </c>
       <c r="O34" s="9">
         <f t="shared" si="3"/>
-        <v>945144.45999999996</v>
+        <v>352374.06</v>
       </c>
       <c r="P34" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q34" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="35" ht="17.25" customHeight="1">
@@ -3145,45 +3133,45 @@
         <v>21</v>
       </c>
       <c r="F35" s="9">
-        <v>226559.57000000001</v>
+        <v>226639.57000000001</v>
       </c>
       <c r="G35" s="9">
         <v>0</v>
       </c>
       <c r="H35" s="9">
         <f t="shared" si="0"/>
-        <v>226559.57000000001</v>
+        <v>226639.57000000001</v>
       </c>
       <c r="I35" s="10">
         <v>1</v>
       </c>
       <c r="J35" s="9">
         <f t="shared" si="1"/>
-        <v>226559.57000000001</v>
+        <v>226639.57000000001</v>
       </c>
       <c r="K35" s="9">
-        <v>226559.57000000001</v>
+        <v>226639.57000000001</v>
       </c>
       <c r="L35" s="9">
         <v>0</v>
       </c>
       <c r="M35" s="9">
         <f t="shared" si="2"/>
-        <v>226559.57000000001</v>
+        <v>226639.57000000001</v>
       </c>
       <c r="N35" s="10">
         <v>1</v>
       </c>
       <c r="O35" s="9">
         <f t="shared" si="3"/>
-        <v>226559.57000000001</v>
+        <v>226639.57000000001</v>
       </c>
       <c r="P35" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q35" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="36" ht="17.25" customHeight="1">
@@ -3203,45 +3191,45 @@
         <v>25</v>
       </c>
       <c r="F36" s="9">
-        <v>451851.5</v>
+        <v>601504.90000000002</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
       </c>
       <c r="H36" s="9">
         <f t="shared" si="0"/>
-        <v>451851.5</v>
+        <v>601504.90000000002</v>
       </c>
       <c r="I36" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J36" s="9">
         <f t="shared" si="1"/>
-        <v>404975.58000000002</v>
+        <v>535623.23999999999</v>
       </c>
       <c r="K36" s="9">
-        <v>451851.5</v>
+        <v>601504.90000000002</v>
       </c>
       <c r="L36" s="9">
         <v>0</v>
       </c>
       <c r="M36" s="9">
         <f t="shared" si="2"/>
-        <v>451851.5</v>
+        <v>601504.90000000002</v>
       </c>
       <c r="N36" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O36" s="9">
         <f t="shared" si="3"/>
-        <v>405211.64000000001</v>
+        <v>535384.87</v>
       </c>
       <c r="P36" s="10">
         <f t="shared" si="4"/>
-        <v>-236.05999999999767</v>
+        <v>238.36999999999534</v>
       </c>
       <c r="Q36" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="37" ht="17.25" customHeight="1">
@@ -3261,45 +3249,45 @@
         <v>21</v>
       </c>
       <c r="F37" s="9">
-        <v>22105.400000000001</v>
+        <v>16460.040000000001</v>
       </c>
       <c r="G37" s="9">
         <v>0</v>
       </c>
       <c r="H37" s="9">
         <f t="shared" si="0"/>
-        <v>22105.400000000001</v>
+        <v>16460.040000000001</v>
       </c>
       <c r="I37" s="10">
         <v>1</v>
       </c>
       <c r="J37" s="9">
         <f t="shared" si="1"/>
-        <v>22105.400000000001</v>
+        <v>16460.040000000001</v>
       </c>
       <c r="K37" s="9">
-        <v>22105.400000000001</v>
+        <v>16460.040000000001</v>
       </c>
       <c r="L37" s="9">
         <v>0</v>
       </c>
       <c r="M37" s="9">
         <f t="shared" si="2"/>
-        <v>22105.400000000001</v>
+        <v>16460.040000000001</v>
       </c>
       <c r="N37" s="10">
         <v>1</v>
       </c>
       <c r="O37" s="9">
         <f t="shared" si="3"/>
-        <v>22105.400000000001</v>
+        <v>16460.040000000001</v>
       </c>
       <c r="P37" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q37" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="38" ht="17.25" customHeight="1">
@@ -3319,45 +3307,45 @@
         <v>21</v>
       </c>
       <c r="F38" s="9">
-        <v>893.38</v>
+        <v>918.86000000000001</v>
       </c>
       <c r="G38" s="9">
         <v>0</v>
       </c>
       <c r="H38" s="9">
         <f t="shared" si="0"/>
-        <v>893.38</v>
+        <v>918.86000000000001</v>
       </c>
       <c r="I38" s="10">
         <v>1</v>
       </c>
       <c r="J38" s="9">
         <f t="shared" si="1"/>
-        <v>893.38</v>
+        <v>918.86000000000001</v>
       </c>
       <c r="K38" s="9">
-        <v>893.38</v>
+        <v>918.86000000000001</v>
       </c>
       <c r="L38" s="9">
         <v>0</v>
       </c>
       <c r="M38" s="9">
         <f t="shared" si="2"/>
-        <v>893.38</v>
+        <v>918.86000000000001</v>
       </c>
       <c r="N38" s="10">
         <v>1</v>
       </c>
       <c r="O38" s="9">
         <f t="shared" si="3"/>
-        <v>893.38</v>
+        <v>918.86000000000001</v>
       </c>
       <c r="P38" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q38" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="39" ht="17.25" customHeight="1">
@@ -3377,45 +3365,45 @@
         <v>21</v>
       </c>
       <c r="F39" s="9">
-        <v>74272.970000000001</v>
+        <v>57476.949999999997</v>
       </c>
       <c r="G39" s="9">
         <v>0</v>
       </c>
       <c r="H39" s="9">
         <f t="shared" si="0"/>
-        <v>74272.970000000001</v>
+        <v>57476.949999999997</v>
       </c>
       <c r="I39" s="10">
         <v>1</v>
       </c>
       <c r="J39" s="9">
         <f t="shared" si="1"/>
-        <v>74272.970000000001</v>
+        <v>57476.949999999997</v>
       </c>
       <c r="K39" s="9">
-        <v>74272.970000000001</v>
+        <v>57476.949999999997</v>
       </c>
       <c r="L39" s="9">
         <v>0</v>
       </c>
       <c r="M39" s="9">
         <f t="shared" si="2"/>
-        <v>74272.970000000001</v>
+        <v>57476.949999999997</v>
       </c>
       <c r="N39" s="10">
         <v>1</v>
       </c>
       <c r="O39" s="9">
         <f t="shared" si="3"/>
-        <v>74272.970000000001</v>
+        <v>57476.949999999997</v>
       </c>
       <c r="P39" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q39" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="40" ht="17.25" customHeight="1">
@@ -3435,45 +3423,45 @@
         <v>21</v>
       </c>
       <c r="F40" s="9">
-        <v>41041.160000000003</v>
+        <v>110921.16</v>
       </c>
       <c r="G40" s="9">
         <v>0</v>
       </c>
       <c r="H40" s="9">
         <f t="shared" si="0"/>
-        <v>41041.160000000003</v>
+        <v>110921.16</v>
       </c>
       <c r="I40" s="10">
         <v>1</v>
       </c>
       <c r="J40" s="9">
         <f t="shared" si="1"/>
-        <v>41041.160000000003</v>
+        <v>110921.16</v>
       </c>
       <c r="K40" s="9">
-        <v>41041.160000000003</v>
+        <v>110921.16</v>
       </c>
       <c r="L40" s="9">
         <v>0</v>
       </c>
       <c r="M40" s="9">
         <f t="shared" si="2"/>
-        <v>41041.160000000003</v>
+        <v>110921.16</v>
       </c>
       <c r="N40" s="10">
         <v>1</v>
       </c>
       <c r="O40" s="9">
         <f t="shared" si="3"/>
-        <v>41041.160000000003</v>
+        <v>110921.16</v>
       </c>
       <c r="P40" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q40" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="41" ht="17.25" customHeight="1">
@@ -3493,45 +3481,45 @@
         <v>21</v>
       </c>
       <c r="F41" s="9">
-        <v>52233.940000000002</v>
+        <v>325</v>
       </c>
       <c r="G41" s="9">
         <v>0</v>
       </c>
       <c r="H41" s="9">
         <f t="shared" si="0"/>
-        <v>52233.940000000002</v>
+        <v>325</v>
       </c>
       <c r="I41" s="10">
         <v>1</v>
       </c>
       <c r="J41" s="9">
         <f t="shared" si="1"/>
-        <v>52233.940000000002</v>
+        <v>325</v>
       </c>
       <c r="K41" s="9">
-        <v>52233.940000000002</v>
+        <v>325</v>
       </c>
       <c r="L41" s="9">
         <v>0</v>
       </c>
       <c r="M41" s="9">
         <f t="shared" si="2"/>
-        <v>52233.940000000002</v>
+        <v>325</v>
       </c>
       <c r="N41" s="10">
         <v>1</v>
       </c>
       <c r="O41" s="9">
         <f t="shared" si="3"/>
-        <v>52233.940000000002</v>
+        <v>325</v>
       </c>
       <c r="P41" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q41" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="42" ht="17.25" customHeight="1">
@@ -3551,45 +3539,45 @@
         <v>21</v>
       </c>
       <c r="F42" s="9">
-        <v>1.99</v>
+        <v>140128.51999999999</v>
       </c>
       <c r="G42" s="9">
         <v>0</v>
       </c>
       <c r="H42" s="9">
         <f t="shared" si="0"/>
-        <v>1.99</v>
+        <v>140128.51999999999</v>
       </c>
       <c r="I42" s="10">
         <v>1</v>
       </c>
       <c r="J42" s="9">
         <f t="shared" si="1"/>
-        <v>1.99</v>
+        <v>140128.51999999999</v>
       </c>
       <c r="K42" s="9">
-        <v>1.99</v>
+        <v>140128.51999999999</v>
       </c>
       <c r="L42" s="9">
         <v>0</v>
       </c>
       <c r="M42" s="9">
         <f t="shared" si="2"/>
-        <v>1.99</v>
+        <v>140128.51999999999</v>
       </c>
       <c r="N42" s="10">
         <v>1</v>
       </c>
       <c r="O42" s="9">
         <f t="shared" si="3"/>
-        <v>1.99</v>
+        <v>140128.51999999999</v>
       </c>
       <c r="P42" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q42" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="43" ht="17.25" customHeight="1">
@@ -3609,45 +3597,45 @@
         <v>21</v>
       </c>
       <c r="F43" s="9">
-        <v>146.81</v>
+        <v>1.99</v>
       </c>
       <c r="G43" s="9">
         <v>0</v>
       </c>
       <c r="H43" s="9">
         <f t="shared" si="0"/>
-        <v>146.81</v>
+        <v>1.99</v>
       </c>
       <c r="I43" s="10">
         <v>1</v>
       </c>
       <c r="J43" s="9">
         <f t="shared" si="1"/>
-        <v>146.81</v>
+        <v>1.99</v>
       </c>
       <c r="K43" s="9">
-        <v>146.81</v>
+        <v>1.99</v>
       </c>
       <c r="L43" s="9">
         <v>0</v>
       </c>
       <c r="M43" s="9">
         <f t="shared" si="2"/>
-        <v>146.81</v>
+        <v>1.99</v>
       </c>
       <c r="N43" s="10">
         <v>1</v>
       </c>
       <c r="O43" s="9">
         <f t="shared" si="3"/>
-        <v>146.81</v>
+        <v>1.99</v>
       </c>
       <c r="P43" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q43" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="44" ht="17.25" customHeight="1">
@@ -3667,45 +3655,45 @@
         <v>21</v>
       </c>
       <c r="F44" s="9">
-        <v>3392.71</v>
+        <v>246.81</v>
       </c>
       <c r="G44" s="9">
         <v>0</v>
       </c>
       <c r="H44" s="9">
         <f t="shared" si="0"/>
-        <v>3392.71</v>
+        <v>246.81</v>
       </c>
       <c r="I44" s="10">
         <v>1</v>
       </c>
       <c r="J44" s="9">
         <f t="shared" si="1"/>
-        <v>3392.71</v>
+        <v>246.81</v>
       </c>
       <c r="K44" s="9">
-        <v>3392.71</v>
+        <v>246.81</v>
       </c>
       <c r="L44" s="9">
         <v>0</v>
       </c>
       <c r="M44" s="9">
         <f t="shared" si="2"/>
-        <v>3392.71</v>
+        <v>246.81</v>
       </c>
       <c r="N44" s="10">
         <v>1</v>
       </c>
       <c r="O44" s="9">
         <f t="shared" si="3"/>
-        <v>3392.71</v>
+        <v>246.81</v>
       </c>
       <c r="P44" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q44" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="45" ht="17.25" customHeight="1">
@@ -3722,48 +3710,48 @@
         <v>102</v>
       </c>
       <c r="E45" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F45" s="9">
-        <v>13816.41</v>
+        <v>3580.2399999999998</v>
       </c>
       <c r="G45" s="9">
         <v>0</v>
       </c>
       <c r="H45" s="9">
         <f t="shared" si="0"/>
-        <v>13816.41</v>
+        <v>3580.2399999999998</v>
       </c>
       <c r="I45" s="10">
-        <v>1.11575</v>
+        <v>1</v>
       </c>
       <c r="J45" s="9">
         <f t="shared" si="1"/>
-        <v>12383.07</v>
+        <v>3580.2399999999998</v>
       </c>
       <c r="K45" s="9">
-        <v>13816.41</v>
+        <v>3580.2399999999998</v>
       </c>
       <c r="L45" s="9">
         <v>0</v>
       </c>
       <c r="M45" s="9">
         <f t="shared" si="2"/>
-        <v>13816.41</v>
+        <v>3580.2399999999998</v>
       </c>
       <c r="N45" s="10">
-        <v>1.1151</v>
+        <v>1</v>
       </c>
       <c r="O45" s="9">
         <f t="shared" si="3"/>
-        <v>12390.290000000001</v>
+        <v>3580.2399999999998</v>
       </c>
       <c r="P45" s="10">
         <f t="shared" si="4"/>
-        <v>-7.2200000000011642</v>
+        <v>0</v>
       </c>
       <c r="Q45" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="46" ht="17.25" customHeight="1">
@@ -3777,51 +3765,51 @@
         <v>19</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E46" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F46" s="9">
-        <v>74948.240000000005</v>
+        <v>13816.41</v>
       </c>
       <c r="G46" s="9">
         <v>0</v>
       </c>
       <c r="H46" s="9">
         <f t="shared" si="0"/>
-        <v>74948.240000000005</v>
+        <v>13816.41</v>
       </c>
       <c r="I46" s="10">
-        <v>1</v>
+        <v>1.123</v>
       </c>
       <c r="J46" s="9">
         <f t="shared" si="1"/>
-        <v>74948.240000000005</v>
+        <v>12303.129999999999</v>
       </c>
       <c r="K46" s="9">
-        <v>74948.240000000005</v>
+        <v>13816.41</v>
       </c>
       <c r="L46" s="9">
         <v>0</v>
       </c>
       <c r="M46" s="9">
         <f t="shared" si="2"/>
-        <v>74948.240000000005</v>
+        <v>13816.41</v>
       </c>
       <c r="N46" s="10">
-        <v>1</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O46" s="9">
         <f t="shared" si="3"/>
-        <v>74948.240000000005</v>
+        <v>12297.65</v>
       </c>
       <c r="P46" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5.4799999999995634</v>
       </c>
       <c r="Q46" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="47" ht="17.25" customHeight="1">
@@ -3829,57 +3817,57 @@
         <v>17</v>
       </c>
       <c r="B47" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D47" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="C47" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D47" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="E47" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F47" s="9">
-        <v>21.899999999999999</v>
+        <v>75048.240000000005</v>
       </c>
       <c r="G47" s="9">
         <v>0</v>
       </c>
       <c r="H47" s="9">
         <f t="shared" si="0"/>
-        <v>21.899999999999999</v>
+        <v>75048.240000000005</v>
       </c>
       <c r="I47" s="10">
         <v>1</v>
       </c>
       <c r="J47" s="9">
         <f t="shared" si="1"/>
-        <v>21.899999999999999</v>
+        <v>75048.240000000005</v>
       </c>
       <c r="K47" s="9">
-        <v>21.899999999999999</v>
+        <v>75048.240000000005</v>
       </c>
       <c r="L47" s="9">
         <v>0</v>
       </c>
       <c r="M47" s="9">
         <f t="shared" si="2"/>
-        <v>21.899999999999999</v>
+        <v>75048.240000000005</v>
       </c>
       <c r="N47" s="10">
         <v>1</v>
       </c>
       <c r="O47" s="9">
         <f t="shared" si="3"/>
-        <v>21.899999999999999</v>
+        <v>75048.240000000005</v>
       </c>
       <c r="P47" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q47" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="48" ht="17.25" customHeight="1">
@@ -3899,45 +3887,45 @@
         <v>21</v>
       </c>
       <c r="F48" s="9">
-        <v>1800</v>
+        <v>21.899999999999999</v>
       </c>
       <c r="G48" s="9">
         <v>0</v>
       </c>
       <c r="H48" s="9">
         <f t="shared" si="0"/>
-        <v>1800</v>
+        <v>21.899999999999999</v>
       </c>
       <c r="I48" s="10">
         <v>1</v>
       </c>
       <c r="J48" s="9">
         <f t="shared" si="1"/>
-        <v>1800</v>
+        <v>21.899999999999999</v>
       </c>
       <c r="K48" s="9">
-        <v>1800</v>
+        <v>21.899999999999999</v>
       </c>
       <c r="L48" s="9">
         <v>0</v>
       </c>
       <c r="M48" s="9">
         <f t="shared" si="2"/>
-        <v>1800</v>
+        <v>21.899999999999999</v>
       </c>
       <c r="N48" s="10">
         <v>1</v>
       </c>
       <c r="O48" s="9">
         <f t="shared" si="3"/>
-        <v>1800</v>
+        <v>21.899999999999999</v>
       </c>
       <c r="P48" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q48" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="49" ht="17.25" customHeight="1">
@@ -3957,45 +3945,45 @@
         <v>21</v>
       </c>
       <c r="F49" s="9">
-        <v>242298.70999999999</v>
+        <v>450</v>
       </c>
       <c r="G49" s="9">
         <v>0</v>
       </c>
       <c r="H49" s="9">
         <f t="shared" si="0"/>
-        <v>242298.70999999999</v>
+        <v>450</v>
       </c>
       <c r="I49" s="10">
         <v>1</v>
       </c>
       <c r="J49" s="9">
         <f t="shared" si="1"/>
-        <v>242298.70999999999</v>
+        <v>450</v>
       </c>
       <c r="K49" s="9">
-        <v>242298.70999999999</v>
+        <v>450</v>
       </c>
       <c r="L49" s="9">
-        <v>-2.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="M49" s="9">
         <f t="shared" si="2"/>
-        <v>242296.01999999999</v>
+        <v>450</v>
       </c>
       <c r="N49" s="10">
         <v>1</v>
       </c>
       <c r="O49" s="9">
         <f t="shared" si="3"/>
-        <v>242296.01999999999</v>
+        <v>450</v>
       </c>
       <c r="P49" s="10">
         <f t="shared" si="4"/>
-        <v>2.6900000000023283</v>
+        <v>0</v>
       </c>
       <c r="Q49" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="50" ht="17.25" customHeight="1">
@@ -4015,45 +4003,45 @@
         <v>21</v>
       </c>
       <c r="F50" s="9">
-        <v>80.980000000000004</v>
+        <v>242513.03</v>
       </c>
       <c r="G50" s="9">
         <v>0</v>
       </c>
       <c r="H50" s="9">
         <f t="shared" si="0"/>
-        <v>80.980000000000004</v>
+        <v>242513.03</v>
       </c>
       <c r="I50" s="10">
         <v>1</v>
       </c>
       <c r="J50" s="9">
         <f t="shared" si="1"/>
-        <v>80.980000000000004</v>
+        <v>242513.03</v>
       </c>
       <c r="K50" s="9">
-        <v>80.980000000000004</v>
+        <v>242513.03</v>
       </c>
       <c r="L50" s="9">
-        <v>0</v>
+        <v>-2.6899999999999999</v>
       </c>
       <c r="M50" s="9">
         <f t="shared" si="2"/>
-        <v>80.980000000000004</v>
+        <v>242510.34</v>
       </c>
       <c r="N50" s="10">
         <v>1</v>
       </c>
       <c r="O50" s="9">
         <f t="shared" si="3"/>
-        <v>80.980000000000004</v>
+        <v>242510.34</v>
       </c>
       <c r="P50" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2.6900000000023283</v>
       </c>
       <c r="Q50" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="51" ht="17.25" customHeight="1">
@@ -4073,45 +4061,45 @@
         <v>21</v>
       </c>
       <c r="F51" s="9">
-        <v>4311.4499999999998</v>
+        <v>180.97999999999999</v>
       </c>
       <c r="G51" s="9">
         <v>0</v>
       </c>
       <c r="H51" s="9">
         <f t="shared" si="0"/>
-        <v>4311.4499999999998</v>
+        <v>180.97999999999999</v>
       </c>
       <c r="I51" s="10">
         <v>1</v>
       </c>
       <c r="J51" s="9">
         <f t="shared" si="1"/>
-        <v>4311.4499999999998</v>
+        <v>180.97999999999999</v>
       </c>
       <c r="K51" s="9">
-        <v>4311.4499999999998</v>
+        <v>180.97999999999999</v>
       </c>
       <c r="L51" s="9">
         <v>0</v>
       </c>
       <c r="M51" s="9">
         <f t="shared" si="2"/>
-        <v>4311.4499999999998</v>
+        <v>180.97999999999999</v>
       </c>
       <c r="N51" s="10">
         <v>1</v>
       </c>
       <c r="O51" s="9">
         <f t="shared" si="3"/>
-        <v>4311.4499999999998</v>
+        <v>180.97999999999999</v>
       </c>
       <c r="P51" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q51" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="52" ht="17.25" customHeight="1">
@@ -4131,45 +4119,45 @@
         <v>21</v>
       </c>
       <c r="F52" s="9">
-        <v>2214.6700000000001</v>
+        <v>25196.450000000001</v>
       </c>
       <c r="G52" s="9">
         <v>0</v>
       </c>
       <c r="H52" s="9">
         <f t="shared" si="0"/>
-        <v>2214.6700000000001</v>
+        <v>25196.450000000001</v>
       </c>
       <c r="I52" s="10">
         <v>1</v>
       </c>
       <c r="J52" s="9">
         <f t="shared" si="1"/>
-        <v>2214.6700000000001</v>
+        <v>25196.450000000001</v>
       </c>
       <c r="K52" s="9">
-        <v>2214.6700000000001</v>
+        <v>25196.450000000001</v>
       </c>
       <c r="L52" s="9">
         <v>0</v>
       </c>
       <c r="M52" s="9">
         <f t="shared" si="2"/>
-        <v>2214.6700000000001</v>
+        <v>25196.450000000001</v>
       </c>
       <c r="N52" s="10">
         <v>1</v>
       </c>
       <c r="O52" s="9">
         <f t="shared" si="3"/>
-        <v>2214.6700000000001</v>
+        <v>25196.450000000001</v>
       </c>
       <c r="P52" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q52" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="53" ht="17.25" customHeight="1">
@@ -4189,45 +4177,45 @@
         <v>21</v>
       </c>
       <c r="F53" s="9">
-        <v>45570.510000000002</v>
+        <v>2282.1599999999999</v>
       </c>
       <c r="G53" s="9">
         <v>0</v>
       </c>
       <c r="H53" s="9">
         <f t="shared" si="0"/>
-        <v>45570.510000000002</v>
+        <v>2282.1599999999999</v>
       </c>
       <c r="I53" s="10">
         <v>1</v>
       </c>
       <c r="J53" s="9">
         <f t="shared" si="1"/>
-        <v>45570.510000000002</v>
+        <v>2282.1599999999999</v>
       </c>
       <c r="K53" s="9">
-        <v>45570.510000000002</v>
+        <v>2282.1599999999999</v>
       </c>
       <c r="L53" s="9">
         <v>0</v>
       </c>
       <c r="M53" s="9">
         <f t="shared" si="2"/>
-        <v>45570.510000000002</v>
+        <v>2282.1599999999999</v>
       </c>
       <c r="N53" s="10">
         <v>1</v>
       </c>
       <c r="O53" s="9">
         <f t="shared" si="3"/>
-        <v>45570.510000000002</v>
+        <v>2282.1599999999999</v>
       </c>
       <c r="P53" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q53" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="54" ht="17.25" customHeight="1">
@@ -4247,45 +4235,45 @@
         <v>21</v>
       </c>
       <c r="F54" s="9">
-        <v>208646.14000000001</v>
+        <v>13287.67</v>
       </c>
       <c r="G54" s="9">
         <v>0</v>
       </c>
       <c r="H54" s="9">
         <f t="shared" si="0"/>
-        <v>208646.14000000001</v>
+        <v>13287.67</v>
       </c>
       <c r="I54" s="10">
         <v>1</v>
       </c>
       <c r="J54" s="9">
         <f t="shared" si="1"/>
-        <v>208646.14000000001</v>
+        <v>13287.67</v>
       </c>
       <c r="K54" s="9">
-        <v>208646.14000000001</v>
+        <v>13287.67</v>
       </c>
       <c r="L54" s="9">
         <v>0</v>
       </c>
       <c r="M54" s="9">
         <f t="shared" si="2"/>
-        <v>208646.14000000001</v>
+        <v>13287.67</v>
       </c>
       <c r="N54" s="10">
         <v>1</v>
       </c>
       <c r="O54" s="9">
         <f t="shared" si="3"/>
-        <v>208646.14000000001</v>
+        <v>13287.67</v>
       </c>
       <c r="P54" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q54" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="55" ht="17.25" customHeight="1">
@@ -4305,45 +4293,45 @@
         <v>21</v>
       </c>
       <c r="F55" s="9">
-        <v>40662.459999999999</v>
+        <v>213822.67000000001</v>
       </c>
       <c r="G55" s="9">
         <v>0</v>
       </c>
       <c r="H55" s="9">
         <f t="shared" si="0"/>
-        <v>40662.459999999999</v>
+        <v>213822.67000000001</v>
       </c>
       <c r="I55" s="10">
         <v>1</v>
       </c>
       <c r="J55" s="9">
         <f t="shared" si="1"/>
-        <v>40662.459999999999</v>
+        <v>213822.67000000001</v>
       </c>
       <c r="K55" s="9">
-        <v>40662.459999999999</v>
+        <v>213822.67000000001</v>
       </c>
       <c r="L55" s="9">
         <v>0</v>
       </c>
       <c r="M55" s="9">
         <f t="shared" si="2"/>
-        <v>40662.459999999999</v>
+        <v>213822.67000000001</v>
       </c>
       <c r="N55" s="10">
         <v>1</v>
       </c>
       <c r="O55" s="9">
         <f t="shared" si="3"/>
-        <v>40662.459999999999</v>
+        <v>213822.67000000001</v>
       </c>
       <c r="P55" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q55" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="56" ht="17.25" customHeight="1">
@@ -4363,45 +4351,45 @@
         <v>21</v>
       </c>
       <c r="F56" s="9">
-        <v>8684.1499999999996</v>
+        <v>10062.879999999999</v>
       </c>
       <c r="G56" s="9">
         <v>0</v>
       </c>
       <c r="H56" s="9">
         <f t="shared" si="0"/>
-        <v>8684.1499999999996</v>
+        <v>10062.879999999999</v>
       </c>
       <c r="I56" s="10">
         <v>1</v>
       </c>
       <c r="J56" s="9">
         <f t="shared" si="1"/>
-        <v>8684.1499999999996</v>
+        <v>10062.879999999999</v>
       </c>
       <c r="K56" s="9">
-        <v>8684.1499999999996</v>
+        <v>10062.879999999999</v>
       </c>
       <c r="L56" s="9">
         <v>0</v>
       </c>
       <c r="M56" s="9">
         <f t="shared" si="2"/>
-        <v>8684.1499999999996</v>
+        <v>10062.879999999999</v>
       </c>
       <c r="N56" s="10">
         <v>1</v>
       </c>
       <c r="O56" s="9">
         <f t="shared" si="3"/>
-        <v>8684.1499999999996</v>
+        <v>10062.879999999999</v>
       </c>
       <c r="P56" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q56" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="57" ht="17.25" customHeight="1">
@@ -4421,45 +4409,45 @@
         <v>21</v>
       </c>
       <c r="F57" s="9">
-        <v>7344.3000000000002</v>
+        <v>23966.919999999998</v>
       </c>
       <c r="G57" s="9">
         <v>0</v>
       </c>
       <c r="H57" s="9">
         <f t="shared" si="0"/>
-        <v>7344.3000000000002</v>
+        <v>23966.919999999998</v>
       </c>
       <c r="I57" s="10">
         <v>1</v>
       </c>
       <c r="J57" s="9">
         <f t="shared" si="1"/>
-        <v>7344.3000000000002</v>
+        <v>23966.919999999998</v>
       </c>
       <c r="K57" s="9">
-        <v>7344.3000000000002</v>
+        <v>23966.919999999998</v>
       </c>
       <c r="L57" s="9">
         <v>0</v>
       </c>
       <c r="M57" s="9">
         <f t="shared" si="2"/>
-        <v>7344.3000000000002</v>
+        <v>23966.919999999998</v>
       </c>
       <c r="N57" s="10">
         <v>1</v>
       </c>
       <c r="O57" s="9">
         <f t="shared" si="3"/>
-        <v>7344.3000000000002</v>
+        <v>23966.919999999998</v>
       </c>
       <c r="P57" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q57" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="58" ht="17.25" customHeight="1">
@@ -4479,45 +4467,45 @@
         <v>21</v>
       </c>
       <c r="F58" s="9">
-        <v>19.960000000000001</v>
+        <v>13814.85</v>
       </c>
       <c r="G58" s="9">
         <v>0</v>
       </c>
       <c r="H58" s="9">
         <f t="shared" si="0"/>
-        <v>19.960000000000001</v>
+        <v>13814.85</v>
       </c>
       <c r="I58" s="10">
         <v>1</v>
       </c>
       <c r="J58" s="9">
         <f t="shared" si="1"/>
-        <v>19.960000000000001</v>
+        <v>13814.85</v>
       </c>
       <c r="K58" s="9">
-        <v>19.960000000000001</v>
+        <v>13814.85</v>
       </c>
       <c r="L58" s="9">
         <v>0</v>
       </c>
       <c r="M58" s="9">
         <f t="shared" si="2"/>
-        <v>19.960000000000001</v>
+        <v>13814.85</v>
       </c>
       <c r="N58" s="10">
         <v>1</v>
       </c>
       <c r="O58" s="9">
         <f t="shared" si="3"/>
-        <v>19.960000000000001</v>
+        <v>13814.85</v>
       </c>
       <c r="P58" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q58" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="59" ht="17.25" customHeight="1">
@@ -4537,45 +4525,45 @@
         <v>21</v>
       </c>
       <c r="F59" s="9">
-        <v>16616.209999999999</v>
+        <v>19.960000000000001</v>
       </c>
       <c r="G59" s="9">
         <v>0</v>
       </c>
       <c r="H59" s="9">
         <f t="shared" si="0"/>
-        <v>16616.209999999999</v>
+        <v>19.960000000000001</v>
       </c>
       <c r="I59" s="10">
         <v>1</v>
       </c>
       <c r="J59" s="9">
         <f t="shared" si="1"/>
-        <v>16616.209999999999</v>
+        <v>19.960000000000001</v>
       </c>
       <c r="K59" s="9">
-        <v>16616.209999999999</v>
+        <v>19.960000000000001</v>
       </c>
       <c r="L59" s="9">
         <v>0</v>
       </c>
       <c r="M59" s="9">
         <f t="shared" si="2"/>
-        <v>16616.209999999999</v>
+        <v>19.960000000000001</v>
       </c>
       <c r="N59" s="10">
         <v>1</v>
       </c>
       <c r="O59" s="9">
         <f t="shared" si="3"/>
-        <v>16616.209999999999</v>
+        <v>19.960000000000001</v>
       </c>
       <c r="P59" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q59" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="60" ht="17.25" customHeight="1">
@@ -4595,45 +4583,45 @@
         <v>21</v>
       </c>
       <c r="F60" s="9">
-        <v>16607.849999999999</v>
+        <v>17687.950000000001</v>
       </c>
       <c r="G60" s="9">
         <v>0</v>
       </c>
       <c r="H60" s="9">
         <f t="shared" si="0"/>
-        <v>16607.849999999999</v>
+        <v>17687.950000000001</v>
       </c>
       <c r="I60" s="10">
         <v>1</v>
       </c>
       <c r="J60" s="9">
         <f t="shared" si="1"/>
-        <v>16607.849999999999</v>
+        <v>17687.950000000001</v>
       </c>
       <c r="K60" s="9">
-        <v>16607.849999999999</v>
+        <v>17687.950000000001</v>
       </c>
       <c r="L60" s="9">
         <v>0</v>
       </c>
       <c r="M60" s="9">
         <f t="shared" si="2"/>
-        <v>16607.849999999999</v>
+        <v>17687.950000000001</v>
       </c>
       <c r="N60" s="10">
         <v>1</v>
       </c>
       <c r="O60" s="9">
         <f t="shared" si="3"/>
-        <v>16607.849999999999</v>
+        <v>17687.950000000001</v>
       </c>
       <c r="P60" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q60" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="61" ht="17.25" customHeight="1">
@@ -4653,45 +4641,45 @@
         <v>21</v>
       </c>
       <c r="F61" s="9">
-        <v>89.519999999999996</v>
+        <v>15500.629999999999</v>
       </c>
       <c r="G61" s="9">
         <v>0</v>
       </c>
       <c r="H61" s="9">
         <f t="shared" si="0"/>
-        <v>89.519999999999996</v>
+        <v>15500.629999999999</v>
       </c>
       <c r="I61" s="10">
         <v>1</v>
       </c>
       <c r="J61" s="9">
         <f t="shared" si="1"/>
-        <v>89.519999999999996</v>
+        <v>15500.629999999999</v>
       </c>
       <c r="K61" s="9">
-        <v>89.519999999999996</v>
+        <v>15500.629999999999</v>
       </c>
       <c r="L61" s="9">
         <v>0</v>
       </c>
       <c r="M61" s="9">
         <f t="shared" si="2"/>
-        <v>89.519999999999996</v>
+        <v>15500.629999999999</v>
       </c>
       <c r="N61" s="10">
         <v>1</v>
       </c>
       <c r="O61" s="9">
         <f t="shared" si="3"/>
-        <v>89.519999999999996</v>
+        <v>15500.629999999999</v>
       </c>
       <c r="P61" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q61" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="62" ht="17.25" customHeight="1">
@@ -4708,48 +4696,48 @@
         <v>135</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F62" s="9">
-        <v>957</v>
+        <v>79.519999999999996</v>
       </c>
       <c r="G62" s="9">
         <v>0</v>
       </c>
       <c r="H62" s="9">
         <f t="shared" si="0"/>
-        <v>957</v>
+        <v>79.519999999999996</v>
       </c>
       <c r="I62" s="10">
-        <v>7.7439</v>
+        <v>1</v>
       </c>
       <c r="J62" s="9">
         <f t="shared" si="1"/>
-        <v>123.58</v>
+        <v>79.519999999999996</v>
       </c>
       <c r="K62" s="9">
-        <v>957</v>
+        <v>79.519999999999996</v>
       </c>
       <c r="L62" s="9">
         <v>0</v>
       </c>
       <c r="M62" s="9">
         <f t="shared" si="2"/>
-        <v>957</v>
+        <v>79.519999999999996</v>
       </c>
       <c r="N62" s="10">
-        <v>7.7045000000000003</v>
+        <v>1</v>
       </c>
       <c r="O62" s="9">
         <f t="shared" si="3"/>
-        <v>124.20999999999999</v>
+        <v>79.519999999999996</v>
       </c>
       <c r="P62" s="10">
         <f t="shared" si="4"/>
-        <v>-0.62999999999999545</v>
+        <v>0</v>
       </c>
       <c r="Q62" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="63" ht="17.25" customHeight="1">
@@ -4763,51 +4751,51 @@
         <v>19</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E63" s="8" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F63" s="9">
-        <v>87.5</v>
+        <v>957</v>
       </c>
       <c r="G63" s="9">
         <v>0</v>
       </c>
       <c r="H63" s="9">
         <f t="shared" si="0"/>
-        <v>87.5</v>
+        <v>957</v>
       </c>
       <c r="I63" s="10">
-        <v>1</v>
+        <v>7.5395000000000003</v>
       </c>
       <c r="J63" s="9">
         <f t="shared" si="1"/>
-        <v>87.5</v>
+        <v>126.93000000000001</v>
       </c>
       <c r="K63" s="9">
-        <v>87.5</v>
+        <v>957</v>
       </c>
       <c r="L63" s="9">
         <v>0</v>
       </c>
       <c r="M63" s="9">
         <f t="shared" si="2"/>
-        <v>87.5</v>
+        <v>957</v>
       </c>
       <c r="N63" s="10">
-        <v>1</v>
+        <v>7.5396999999999998</v>
       </c>
       <c r="O63" s="9">
         <f t="shared" si="3"/>
-        <v>87.5</v>
+        <v>126.93000000000001</v>
       </c>
       <c r="P63" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q63" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="64" ht="17.25" customHeight="1">
@@ -4815,57 +4803,57 @@
         <v>17</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="C64" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>138</v>
-      </c>
       <c r="E64" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F64" s="9">
-        <v>2662.7600000000002</v>
+        <v>192.5</v>
       </c>
       <c r="G64" s="9">
         <v>0</v>
       </c>
       <c r="H64" s="9">
         <f t="shared" si="0"/>
-        <v>2662.7600000000002</v>
+        <v>192.5</v>
       </c>
       <c r="I64" s="10">
         <v>1</v>
       </c>
       <c r="J64" s="9">
         <f t="shared" si="1"/>
-        <v>2662.7600000000002</v>
+        <v>192.5</v>
       </c>
       <c r="K64" s="9">
-        <v>2662.7600000000002</v>
+        <v>192.5</v>
       </c>
       <c r="L64" s="9">
         <v>0</v>
       </c>
       <c r="M64" s="9">
         <f t="shared" si="2"/>
-        <v>2662.7600000000002</v>
+        <v>192.5</v>
       </c>
       <c r="N64" s="10">
         <v>1</v>
       </c>
       <c r="O64" s="9">
         <f t="shared" si="3"/>
-        <v>2662.7600000000002</v>
+        <v>192.5</v>
       </c>
       <c r="P64" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q64" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="65" ht="17.25" customHeight="1">
@@ -4885,45 +4873,45 @@
         <v>21</v>
       </c>
       <c r="F65" s="9">
-        <v>64.340000000000003</v>
+        <v>2253.73</v>
       </c>
       <c r="G65" s="9">
         <v>0</v>
       </c>
       <c r="H65" s="9">
         <f t="shared" si="0"/>
-        <v>64.340000000000003</v>
+        <v>2253.73</v>
       </c>
       <c r="I65" s="10">
         <v>1</v>
       </c>
       <c r="J65" s="9">
         <f t="shared" si="1"/>
-        <v>64.340000000000003</v>
+        <v>2253.73</v>
       </c>
       <c r="K65" s="9">
-        <v>64.340000000000003</v>
+        <v>2253.73</v>
       </c>
       <c r="L65" s="9">
         <v>0</v>
       </c>
       <c r="M65" s="9">
         <f t="shared" si="2"/>
-        <v>64.340000000000003</v>
+        <v>2253.73</v>
       </c>
       <c r="N65" s="10">
         <v>1</v>
       </c>
       <c r="O65" s="9">
         <f t="shared" si="3"/>
-        <v>64.340000000000003</v>
+        <v>2253.73</v>
       </c>
       <c r="P65" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q65" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="66" ht="17.25" customHeight="1">
@@ -4943,45 +4931,45 @@
         <v>21</v>
       </c>
       <c r="F66" s="9">
-        <v>12706.450000000001</v>
+        <v>5698.0100000000002</v>
       </c>
       <c r="G66" s="9">
         <v>0</v>
       </c>
       <c r="H66" s="9">
         <f t="shared" si="0"/>
-        <v>12706.450000000001</v>
+        <v>5698.0100000000002</v>
       </c>
       <c r="I66" s="10">
         <v>1</v>
       </c>
       <c r="J66" s="9">
         <f t="shared" si="1"/>
-        <v>12706.450000000001</v>
+        <v>5698.0100000000002</v>
       </c>
       <c r="K66" s="9">
-        <v>12706.450000000001</v>
+        <v>5698.0100000000002</v>
       </c>
       <c r="L66" s="9">
         <v>0</v>
       </c>
       <c r="M66" s="9">
         <f t="shared" si="2"/>
-        <v>12706.450000000001</v>
+        <v>5698.0100000000002</v>
       </c>
       <c r="N66" s="10">
         <v>1</v>
       </c>
       <c r="O66" s="9">
         <f t="shared" si="3"/>
-        <v>12706.450000000001</v>
+        <v>5698.0100000000002</v>
       </c>
       <c r="P66" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q66" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="67" ht="17.25" customHeight="1">
@@ -5001,45 +4989,45 @@
         <v>21</v>
       </c>
       <c r="F67" s="9">
-        <v>53646.980000000003</v>
+        <v>12756.450000000001</v>
       </c>
       <c r="G67" s="9">
         <v>0</v>
       </c>
       <c r="H67" s="9">
         <f t="shared" si="0"/>
-        <v>53646.980000000003</v>
+        <v>12756.450000000001</v>
       </c>
       <c r="I67" s="10">
         <v>1</v>
       </c>
       <c r="J67" s="9">
         <f t="shared" si="1"/>
-        <v>53646.980000000003</v>
+        <v>12756.450000000001</v>
       </c>
       <c r="K67" s="9">
-        <v>53646.980000000003</v>
+        <v>12756.450000000001</v>
       </c>
       <c r="L67" s="9">
         <v>0</v>
       </c>
       <c r="M67" s="9">
         <f t="shared" si="2"/>
-        <v>53646.980000000003</v>
+        <v>12756.450000000001</v>
       </c>
       <c r="N67" s="10">
         <v>1</v>
       </c>
       <c r="O67" s="9">
         <f t="shared" si="3"/>
-        <v>53646.980000000003</v>
+        <v>12756.450000000001</v>
       </c>
       <c r="P67" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q67" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="68" ht="17.25" customHeight="1">
@@ -5059,45 +5047,45 @@
         <v>21</v>
       </c>
       <c r="F68" s="9">
-        <v>99095.130000000005</v>
+        <v>55126.980000000003</v>
       </c>
       <c r="G68" s="9">
         <v>0</v>
       </c>
       <c r="H68" s="9">
         <f t="shared" si="0"/>
-        <v>99095.130000000005</v>
+        <v>55126.980000000003</v>
       </c>
       <c r="I68" s="10">
         <v>1</v>
       </c>
       <c r="J68" s="9">
         <f t="shared" si="1"/>
-        <v>99095.130000000005</v>
+        <v>55126.980000000003</v>
       </c>
       <c r="K68" s="9">
-        <v>99095.130000000005</v>
+        <v>55126.980000000003</v>
       </c>
       <c r="L68" s="9">
         <v>0</v>
       </c>
       <c r="M68" s="9">
         <f t="shared" si="2"/>
-        <v>99095.130000000005</v>
+        <v>55126.980000000003</v>
       </c>
       <c r="N68" s="10">
         <v>1</v>
       </c>
       <c r="O68" s="9">
         <f t="shared" si="3"/>
-        <v>99095.130000000005</v>
+        <v>55126.980000000003</v>
       </c>
       <c r="P68" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q68" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="69" ht="17.25" customHeight="1">
@@ -5117,45 +5105,45 @@
         <v>21</v>
       </c>
       <c r="F69" s="9">
-        <v>233.33000000000001</v>
+        <v>99195.130000000005</v>
       </c>
       <c r="G69" s="9">
         <v>0</v>
       </c>
       <c r="H69" s="9">
         <f t="shared" si="0"/>
-        <v>233.33000000000001</v>
+        <v>99195.130000000005</v>
       </c>
       <c r="I69" s="10">
         <v>1</v>
       </c>
       <c r="J69" s="9">
         <f t="shared" si="1"/>
-        <v>233.33000000000001</v>
+        <v>99195.130000000005</v>
       </c>
       <c r="K69" s="9">
-        <v>233.33000000000001</v>
+        <v>99195.130000000005</v>
       </c>
       <c r="L69" s="9">
         <v>0</v>
       </c>
       <c r="M69" s="9">
         <f t="shared" si="2"/>
-        <v>233.33000000000001</v>
+        <v>99195.130000000005</v>
       </c>
       <c r="N69" s="10">
         <v>1</v>
       </c>
       <c r="O69" s="9">
         <f t="shared" si="3"/>
-        <v>233.33000000000001</v>
+        <v>99195.130000000005</v>
       </c>
       <c r="P69" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q69" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="70" ht="17.25" customHeight="1">
@@ -5175,45 +5163,45 @@
         <v>21</v>
       </c>
       <c r="F70" s="9">
-        <v>149.72999999999999</v>
+        <v>283.32999999999998</v>
       </c>
       <c r="G70" s="9">
         <v>0</v>
       </c>
       <c r="H70" s="9">
         <f t="shared" si="0"/>
-        <v>149.72999999999999</v>
+        <v>283.32999999999998</v>
       </c>
       <c r="I70" s="10">
         <v>1</v>
       </c>
       <c r="J70" s="9">
         <f t="shared" si="1"/>
-        <v>149.72999999999999</v>
+        <v>283.32999999999998</v>
       </c>
       <c r="K70" s="9">
-        <v>149.72999999999999</v>
+        <v>283.32999999999998</v>
       </c>
       <c r="L70" s="9">
         <v>0</v>
       </c>
       <c r="M70" s="9">
         <f t="shared" si="2"/>
-        <v>149.72999999999999</v>
+        <v>283.32999999999998</v>
       </c>
       <c r="N70" s="10">
         <v>1</v>
       </c>
       <c r="O70" s="9">
         <f t="shared" si="3"/>
-        <v>149.72999999999999</v>
+        <v>283.32999999999998</v>
       </c>
       <c r="P70" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q70" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="71" ht="17.25" customHeight="1">
@@ -5233,45 +5221,45 @@
         <v>21</v>
       </c>
       <c r="F71" s="9">
-        <v>4974.75</v>
+        <v>199.72999999999999</v>
       </c>
       <c r="G71" s="9">
         <v>0</v>
       </c>
       <c r="H71" s="9">
         <f t="shared" si="0"/>
-        <v>4974.75</v>
+        <v>199.72999999999999</v>
       </c>
       <c r="I71" s="10">
         <v>1</v>
       </c>
       <c r="J71" s="9">
         <f t="shared" si="1"/>
-        <v>4974.75</v>
+        <v>199.72999999999999</v>
       </c>
       <c r="K71" s="9">
-        <v>4974.75</v>
+        <v>199.72999999999999</v>
       </c>
       <c r="L71" s="9">
         <v>0</v>
       </c>
       <c r="M71" s="9">
         <f t="shared" si="2"/>
-        <v>4974.75</v>
+        <v>199.72999999999999</v>
       </c>
       <c r="N71" s="10">
         <v>1</v>
       </c>
       <c r="O71" s="9">
         <f t="shared" si="3"/>
-        <v>4974.75</v>
+        <v>199.72999999999999</v>
       </c>
       <c r="P71" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q71" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="72" ht="17.25" customHeight="1">
@@ -5288,48 +5276,48 @@
         <v>154</v>
       </c>
       <c r="E72" s="8" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="F72" s="9">
-        <v>265335.32000000001</v>
+        <v>5024.75</v>
       </c>
       <c r="G72" s="9">
         <v>0</v>
       </c>
       <c r="H72" s="9">
         <f t="shared" si="0"/>
-        <v>265335.32000000001</v>
+        <v>5024.75</v>
       </c>
       <c r="I72" s="10">
-        <v>7.7439</v>
+        <v>1</v>
       </c>
       <c r="J72" s="9">
         <f t="shared" si="1"/>
-        <v>34263.779999999999</v>
+        <v>5024.75</v>
       </c>
       <c r="K72" s="9">
-        <v>265335.32000000001</v>
+        <v>5024.75</v>
       </c>
       <c r="L72" s="9">
         <v>0</v>
       </c>
       <c r="M72" s="9">
         <f t="shared" si="2"/>
-        <v>265335.32000000001</v>
+        <v>5024.75</v>
       </c>
       <c r="N72" s="10">
-        <v>7.7045000000000003</v>
+        <v>1</v>
       </c>
       <c r="O72" s="9">
         <f t="shared" si="3"/>
-        <v>34439.010000000002</v>
+        <v>5024.75</v>
       </c>
       <c r="P72" s="10">
         <f t="shared" si="4"/>
-        <v>-175.2300000000032</v>
+        <v>0</v>
       </c>
       <c r="Q72" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="73" ht="17.25" customHeight="1">
@@ -5343,51 +5331,51 @@
         <v>19</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E73" s="8" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="F73" s="9">
-        <v>2484.0900000000001</v>
+        <v>137650.38000000001</v>
       </c>
       <c r="G73" s="9">
         <v>0</v>
       </c>
       <c r="H73" s="9">
         <f t="shared" si="0"/>
-        <v>2484.0900000000001</v>
+        <v>137650.38000000001</v>
       </c>
       <c r="I73" s="10">
-        <v>1</v>
+        <v>7.5395000000000003</v>
       </c>
       <c r="J73" s="9">
         <f t="shared" si="1"/>
-        <v>2484.0900000000001</v>
+        <v>18257.23</v>
       </c>
       <c r="K73" s="9">
-        <v>2484.0900000000001</v>
+        <v>137650.38000000001</v>
       </c>
       <c r="L73" s="9">
         <v>0</v>
       </c>
       <c r="M73" s="9">
         <f t="shared" si="2"/>
-        <v>2484.0900000000001</v>
+        <v>137650.38000000001</v>
       </c>
       <c r="N73" s="10">
-        <v>1</v>
+        <v>7.5396999999999998</v>
       </c>
       <c r="O73" s="9">
         <f t="shared" si="3"/>
-        <v>2484.0900000000001</v>
+        <v>18256.740000000002</v>
       </c>
       <c r="P73" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.48999999999796273</v>
       </c>
       <c r="Q73" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="74" ht="17.25" customHeight="1">
@@ -5395,57 +5383,57 @@
         <v>17</v>
       </c>
       <c r="B74" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D74" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D74" s="7" t="s">
-        <v>157</v>
-      </c>
       <c r="E74" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F74" s="9">
-        <v>750</v>
+        <v>6295.3699999999999</v>
       </c>
       <c r="G74" s="9">
         <v>0</v>
       </c>
       <c r="H74" s="9">
         <f t="shared" si="0"/>
-        <v>750</v>
+        <v>6295.3699999999999</v>
       </c>
       <c r="I74" s="10">
-        <v>1.11575</v>
+        <v>1</v>
       </c>
       <c r="J74" s="9">
         <f t="shared" si="1"/>
-        <v>672.19000000000005</v>
+        <v>6295.3699999999999</v>
       </c>
       <c r="K74" s="9">
-        <v>750</v>
+        <v>6295.3699999999999</v>
       </c>
       <c r="L74" s="9">
         <v>0</v>
       </c>
       <c r="M74" s="9">
         <f t="shared" si="2"/>
-        <v>750</v>
+        <v>6295.3699999999999</v>
       </c>
       <c r="N74" s="10">
-        <v>1.1151</v>
+        <v>1</v>
       </c>
       <c r="O74" s="9">
         <f t="shared" si="3"/>
-        <v>672.59000000000003</v>
+        <v>6295.3699999999999</v>
       </c>
       <c r="P74" s="10">
         <f t="shared" si="4"/>
-        <v>-0.39999999999997726</v>
+        <v>0</v>
       </c>
       <c r="Q74" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="75" ht="17.25" customHeight="1">
@@ -5459,51 +5447,51 @@
         <v>19</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E75" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F75" s="9">
-        <v>1655.3499999999999</v>
+        <v>750</v>
       </c>
       <c r="G75" s="9">
         <v>0</v>
       </c>
       <c r="H75" s="9">
         <f t="shared" si="0"/>
-        <v>1655.3499999999999</v>
+        <v>750</v>
       </c>
       <c r="I75" s="10">
-        <v>1</v>
+        <v>1.123</v>
       </c>
       <c r="J75" s="9">
         <f t="shared" si="1"/>
-        <v>1655.3499999999999</v>
+        <v>667.85000000000002</v>
       </c>
       <c r="K75" s="9">
-        <v>1655.3499999999999</v>
+        <v>750</v>
       </c>
       <c r="L75" s="9">
         <v>0</v>
       </c>
       <c r="M75" s="9">
         <f t="shared" si="2"/>
-        <v>1655.3499999999999</v>
+        <v>750</v>
       </c>
       <c r="N75" s="10">
-        <v>1</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O75" s="9">
         <f t="shared" si="3"/>
-        <v>1655.3499999999999</v>
+        <v>667.55999999999995</v>
       </c>
       <c r="P75" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.29000000000007731</v>
       </c>
       <c r="Q75" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="76" ht="17.25" customHeight="1">
@@ -5511,57 +5499,57 @@
         <v>17</v>
       </c>
       <c r="B76" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D76" s="7" t="s">
-        <v>160</v>
-      </c>
       <c r="E76" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F76" s="9">
-        <v>100516.92999999999</v>
+        <v>1755.3499999999999</v>
       </c>
       <c r="G76" s="9">
         <v>0</v>
       </c>
       <c r="H76" s="9">
         <f t="shared" si="0"/>
-        <v>100516.92999999999</v>
+        <v>1755.3499999999999</v>
       </c>
       <c r="I76" s="10">
         <v>1</v>
       </c>
       <c r="J76" s="9">
         <f t="shared" si="1"/>
-        <v>100516.92999999999</v>
+        <v>1755.3499999999999</v>
       </c>
       <c r="K76" s="9">
-        <v>100516.92999999999</v>
+        <v>1755.3499999999999</v>
       </c>
       <c r="L76" s="9">
         <v>0</v>
       </c>
       <c r="M76" s="9">
         <f t="shared" si="2"/>
-        <v>100516.92999999999</v>
+        <v>1755.3499999999999</v>
       </c>
       <c r="N76" s="10">
         <v>1</v>
       </c>
       <c r="O76" s="9">
         <f t="shared" si="3"/>
-        <v>100516.92999999999</v>
+        <v>1755.3499999999999</v>
       </c>
       <c r="P76" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q76" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="77" ht="17.25" customHeight="1">
@@ -5581,45 +5569,45 @@
         <v>21</v>
       </c>
       <c r="F77" s="9">
-        <v>24.43</v>
+        <v>100666.92999999999</v>
       </c>
       <c r="G77" s="9">
         <v>0</v>
       </c>
       <c r="H77" s="9">
         <f t="shared" si="0"/>
-        <v>24.43</v>
+        <v>100666.92999999999</v>
       </c>
       <c r="I77" s="10">
         <v>1</v>
       </c>
       <c r="J77" s="9">
         <f t="shared" si="1"/>
-        <v>24.43</v>
+        <v>100666.92999999999</v>
       </c>
       <c r="K77" s="9">
-        <v>24.43</v>
+        <v>100666.92999999999</v>
       </c>
       <c r="L77" s="9">
         <v>0</v>
       </c>
       <c r="M77" s="9">
         <f t="shared" si="2"/>
-        <v>24.43</v>
+        <v>100666.92999999999</v>
       </c>
       <c r="N77" s="10">
         <v>1</v>
       </c>
       <c r="O77" s="9">
         <f t="shared" si="3"/>
-        <v>24.43</v>
+        <v>100666.92999999999</v>
       </c>
       <c r="P77" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q77" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="78" ht="17.25" customHeight="1">
@@ -5639,45 +5627,45 @@
         <v>21</v>
       </c>
       <c r="F78" s="9">
-        <v>3961.8699999999999</v>
+        <v>24.43</v>
       </c>
       <c r="G78" s="9">
         <v>0</v>
       </c>
       <c r="H78" s="9">
         <f t="shared" si="0"/>
-        <v>3961.8699999999999</v>
+        <v>24.43</v>
       </c>
       <c r="I78" s="10">
         <v>1</v>
       </c>
       <c r="J78" s="9">
         <f t="shared" si="1"/>
-        <v>3961.8699999999999</v>
+        <v>24.43</v>
       </c>
       <c r="K78" s="9">
-        <v>3961.8699999999999</v>
+        <v>24.43</v>
       </c>
       <c r="L78" s="9">
         <v>0</v>
       </c>
       <c r="M78" s="9">
         <f t="shared" si="2"/>
-        <v>3961.8699999999999</v>
+        <v>24.43</v>
       </c>
       <c r="N78" s="10">
         <v>1</v>
       </c>
       <c r="O78" s="9">
         <f t="shared" si="3"/>
-        <v>3961.8699999999999</v>
+        <v>24.43</v>
       </c>
       <c r="P78" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q78" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="79" ht="17.25" customHeight="1">
@@ -5697,45 +5685,45 @@
         <v>21</v>
       </c>
       <c r="F79" s="9">
-        <v>1210.3299999999999</v>
+        <v>4179.3599999999997</v>
       </c>
       <c r="G79" s="9">
         <v>0</v>
       </c>
       <c r="H79" s="9">
         <f t="shared" si="0"/>
-        <v>1210.3299999999999</v>
+        <v>4179.3599999999997</v>
       </c>
       <c r="I79" s="10">
         <v>1</v>
       </c>
       <c r="J79" s="9">
         <f t="shared" si="1"/>
-        <v>1210.3299999999999</v>
+        <v>4179.3599999999997</v>
       </c>
       <c r="K79" s="9">
-        <v>1210.3299999999999</v>
+        <v>4179.3599999999997</v>
       </c>
       <c r="L79" s="9">
         <v>0</v>
       </c>
       <c r="M79" s="9">
         <f t="shared" si="2"/>
-        <v>1210.3299999999999</v>
+        <v>4179.3599999999997</v>
       </c>
       <c r="N79" s="10">
         <v>1</v>
       </c>
       <c r="O79" s="9">
         <f t="shared" si="3"/>
-        <v>1210.3299999999999</v>
+        <v>4179.3599999999997</v>
       </c>
       <c r="P79" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q79" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="80" ht="17.25" customHeight="1">
@@ -5755,45 +5743,45 @@
         <v>21</v>
       </c>
       <c r="F80" s="9">
-        <v>491.48000000000002</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="G80" s="9">
         <v>0</v>
       </c>
       <c r="H80" s="9">
         <f t="shared" si="0"/>
-        <v>491.48000000000002</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="I80" s="10">
         <v>1</v>
       </c>
       <c r="J80" s="9">
         <f t="shared" si="1"/>
-        <v>491.48000000000002</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="K80" s="9">
-        <v>491.48000000000002</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="L80" s="9">
         <v>0</v>
       </c>
       <c r="M80" s="9">
         <f t="shared" si="2"/>
-        <v>491.48000000000002</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="N80" s="10">
         <v>1</v>
       </c>
       <c r="O80" s="9">
         <f t="shared" si="3"/>
-        <v>491.48000000000002</v>
+        <v>1101.6300000000001</v>
       </c>
       <c r="P80" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q80" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="81" ht="17.25" customHeight="1">
@@ -5813,45 +5801,45 @@
         <v>21</v>
       </c>
       <c r="F81" s="9">
-        <v>6992.7799999999997</v>
+        <v>541.48000000000002</v>
       </c>
       <c r="G81" s="9">
         <v>0</v>
       </c>
       <c r="H81" s="9">
         <f t="shared" si="0"/>
-        <v>6992.7799999999997</v>
+        <v>541.48000000000002</v>
       </c>
       <c r="I81" s="10">
         <v>1</v>
       </c>
       <c r="J81" s="9">
         <f t="shared" si="1"/>
-        <v>6992.7799999999997</v>
+        <v>541.48000000000002</v>
       </c>
       <c r="K81" s="9">
-        <v>6992.7799999999997</v>
+        <v>541.48000000000002</v>
       </c>
       <c r="L81" s="9">
         <v>0</v>
       </c>
       <c r="M81" s="9">
         <f t="shared" si="2"/>
-        <v>6992.7799999999997</v>
+        <v>541.48000000000002</v>
       </c>
       <c r="N81" s="10">
         <v>1</v>
       </c>
       <c r="O81" s="9">
         <f t="shared" si="3"/>
-        <v>6992.7799999999997</v>
+        <v>541.48000000000002</v>
       </c>
       <c r="P81" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q81" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="82" ht="17.25" customHeight="1">
@@ -5871,45 +5859,45 @@
         <v>21</v>
       </c>
       <c r="F82" s="9">
-        <v>895718.82999999996</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="G82" s="9">
         <v>0</v>
       </c>
       <c r="H82" s="9">
         <f t="shared" si="0"/>
-        <v>895718.82999999996</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="I82" s="10">
         <v>1</v>
       </c>
       <c r="J82" s="9">
         <f t="shared" si="1"/>
-        <v>895718.82999999996</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="K82" s="9">
-        <v>895718.82999999996</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="L82" s="9">
         <v>0</v>
       </c>
       <c r="M82" s="9">
         <f t="shared" si="2"/>
-        <v>895718.82999999996</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="N82" s="10">
         <v>1</v>
       </c>
       <c r="O82" s="9">
         <f t="shared" si="3"/>
-        <v>895718.82999999996</v>
+        <v>9255.7199999999993</v>
       </c>
       <c r="P82" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q82" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="83" ht="17.25" customHeight="1">
@@ -5929,45 +5917,45 @@
         <v>21</v>
       </c>
       <c r="F83" s="9">
-        <v>22219.200000000001</v>
+        <v>924806.28000000003</v>
       </c>
       <c r="G83" s="9">
         <v>0</v>
       </c>
       <c r="H83" s="9">
         <f t="shared" si="0"/>
-        <v>22219.200000000001</v>
+        <v>924806.28000000003</v>
       </c>
       <c r="I83" s="10">
         <v>1</v>
       </c>
       <c r="J83" s="9">
         <f t="shared" si="1"/>
-        <v>22219.200000000001</v>
+        <v>924806.28000000003</v>
       </c>
       <c r="K83" s="9">
-        <v>22219.200000000001</v>
+        <v>924806.28000000003</v>
       </c>
       <c r="L83" s="9">
         <v>0</v>
       </c>
       <c r="M83" s="9">
         <f t="shared" si="2"/>
-        <v>22219.200000000001</v>
+        <v>924806.28000000003</v>
       </c>
       <c r="N83" s="10">
         <v>1</v>
       </c>
       <c r="O83" s="9">
         <f t="shared" si="3"/>
-        <v>22219.200000000001</v>
+        <v>924806.28000000003</v>
       </c>
       <c r="P83" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q83" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="84" ht="17.25" customHeight="1">
@@ -5984,48 +5972,48 @@
         <v>176</v>
       </c>
       <c r="E84" s="8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="F84" s="9">
-        <v>97</v>
+        <v>22269.200000000001</v>
       </c>
       <c r="G84" s="9">
         <v>0</v>
       </c>
       <c r="H84" s="9">
         <f t="shared" si="0"/>
-        <v>97</v>
+        <v>22269.200000000001</v>
       </c>
       <c r="I84" s="10">
-        <v>1.11575</v>
+        <v>1</v>
       </c>
       <c r="J84" s="9">
         <f t="shared" si="1"/>
-        <v>86.939999999999998</v>
+        <v>22269.200000000001</v>
       </c>
       <c r="K84" s="9">
-        <v>97</v>
+        <v>22269.200000000001</v>
       </c>
       <c r="L84" s="9">
         <v>0</v>
       </c>
       <c r="M84" s="9">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>22269.200000000001</v>
       </c>
       <c r="N84" s="10">
-        <v>1.1151</v>
+        <v>1</v>
       </c>
       <c r="O84" s="9">
         <f t="shared" si="3"/>
-        <v>86.989999999999995</v>
+        <v>22269.200000000001</v>
       </c>
       <c r="P84" s="10">
         <f t="shared" si="4"/>
-        <v>-0.049999999999997158</v>
+        <v>0</v>
       </c>
       <c r="Q84" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="85" ht="17.25" customHeight="1">
@@ -6039,51 +6027,51 @@
         <v>19</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E85" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F85" s="9">
-        <v>12981.92</v>
+        <v>21012.099999999999</v>
       </c>
       <c r="G85" s="9">
         <v>0</v>
       </c>
       <c r="H85" s="9">
         <f t="shared" si="0"/>
-        <v>12981.92</v>
+        <v>21012.099999999999</v>
       </c>
       <c r="I85" s="10">
         <v>1</v>
       </c>
       <c r="J85" s="9">
         <f t="shared" si="1"/>
-        <v>12981.92</v>
+        <v>21012.099999999999</v>
       </c>
       <c r="K85" s="9">
-        <v>12981.92</v>
+        <v>21012.099999999999</v>
       </c>
       <c r="L85" s="9">
         <v>0</v>
       </c>
       <c r="M85" s="9">
         <f t="shared" si="2"/>
-        <v>12981.92</v>
+        <v>21012.099999999999</v>
       </c>
       <c r="N85" s="10">
         <v>1</v>
       </c>
       <c r="O85" s="9">
         <f t="shared" si="3"/>
-        <v>12981.92</v>
+        <v>21012.099999999999</v>
       </c>
       <c r="P85" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q85" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="86" ht="17.25" customHeight="1">
@@ -6091,57 +6079,57 @@
         <v>17</v>
       </c>
       <c r="B86" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C86" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E86" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F86" s="9">
-        <v>1638.8599999999999</v>
+        <v>4407.3800000000001</v>
       </c>
       <c r="G86" s="9">
         <v>0</v>
       </c>
       <c r="H86" s="9">
         <f t="shared" si="0"/>
-        <v>1638.8599999999999</v>
+        <v>4407.3800000000001</v>
       </c>
       <c r="I86" s="10">
         <v>1</v>
       </c>
       <c r="J86" s="9">
         <f t="shared" si="1"/>
-        <v>1638.8599999999999</v>
+        <v>4407.3800000000001</v>
       </c>
       <c r="K86" s="9">
-        <v>1638.8599999999999</v>
+        <v>4407.3800000000001</v>
       </c>
       <c r="L86" s="9">
         <v>0</v>
       </c>
       <c r="M86" s="9">
         <f t="shared" si="2"/>
-        <v>1638.8599999999999</v>
+        <v>4407.3800000000001</v>
       </c>
       <c r="N86" s="10">
         <v>1</v>
       </c>
       <c r="O86" s="9">
         <f t="shared" si="3"/>
-        <v>1638.8599999999999</v>
+        <v>4407.3800000000001</v>
       </c>
       <c r="P86" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q86" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="87" ht="17.25" customHeight="1">
@@ -6149,57 +6137,57 @@
         <v>17</v>
       </c>
       <c r="B87" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C87" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E87" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F87" s="9">
-        <v>5953.7700000000004</v>
+        <v>872.25</v>
       </c>
       <c r="G87" s="9">
         <v>0</v>
       </c>
       <c r="H87" s="9">
         <f t="shared" si="0"/>
-        <v>5953.7700000000004</v>
+        <v>872.25</v>
       </c>
       <c r="I87" s="10">
         <v>1</v>
       </c>
       <c r="J87" s="9">
         <f t="shared" si="1"/>
-        <v>5953.7700000000004</v>
+        <v>872.25</v>
       </c>
       <c r="K87" s="9">
-        <v>5953.7700000000004</v>
+        <v>872.25</v>
       </c>
       <c r="L87" s="9">
         <v>0</v>
       </c>
       <c r="M87" s="9">
         <f t="shared" si="2"/>
-        <v>5953.7700000000004</v>
+        <v>872.25</v>
       </c>
       <c r="N87" s="10">
         <v>1</v>
       </c>
       <c r="O87" s="9">
         <f t="shared" si="3"/>
-        <v>5953.7700000000004</v>
+        <v>872.25</v>
       </c>
       <c r="P87" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q87" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="88" ht="17.25" customHeight="1">
@@ -6207,57 +6195,57 @@
         <v>17</v>
       </c>
       <c r="B88" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C88" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E88" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F88" s="9">
-        <v>20914.150000000001</v>
+        <v>21014.150000000001</v>
       </c>
       <c r="G88" s="9">
         <v>0</v>
       </c>
       <c r="H88" s="9">
         <f t="shared" si="0"/>
-        <v>20914.150000000001</v>
+        <v>21014.150000000001</v>
       </c>
       <c r="I88" s="10">
         <v>1</v>
       </c>
       <c r="J88" s="9">
         <f t="shared" si="1"/>
-        <v>20914.150000000001</v>
+        <v>21014.150000000001</v>
       </c>
       <c r="K88" s="9">
-        <v>20914.150000000001</v>
+        <v>21014.150000000001</v>
       </c>
       <c r="L88" s="9">
         <v>0</v>
       </c>
       <c r="M88" s="9">
         <f t="shared" si="2"/>
-        <v>20914.150000000001</v>
+        <v>21014.150000000001</v>
       </c>
       <c r="N88" s="10">
         <v>1</v>
       </c>
       <c r="O88" s="9">
         <f t="shared" si="3"/>
-        <v>20914.150000000001</v>
+        <v>21014.150000000001</v>
       </c>
       <c r="P88" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q88" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="89" ht="17.25" customHeight="1">
@@ -6265,57 +6253,57 @@
         <v>17</v>
       </c>
       <c r="B89" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D89" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D89" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="E89" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F89" s="9">
-        <v>3629.4499999999998</v>
+        <v>486.19999999999999</v>
       </c>
       <c r="G89" s="9">
         <v>0</v>
       </c>
       <c r="H89" s="9">
         <f t="shared" si="0"/>
-        <v>3629.4499999999998</v>
+        <v>486.19999999999999</v>
       </c>
       <c r="I89" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J89" s="9">
         <f t="shared" si="1"/>
-        <v>3252.9200000000001</v>
+        <v>432.94999999999999</v>
       </c>
       <c r="K89" s="9">
-        <v>3629.4499999999998</v>
+        <v>486.19999999999999</v>
       </c>
       <c r="L89" s="9">
         <v>0</v>
       </c>
       <c r="M89" s="9">
         <f t="shared" si="2"/>
-        <v>3629.4499999999998</v>
+        <v>486.19999999999999</v>
       </c>
       <c r="N89" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O89" s="9">
         <f t="shared" si="3"/>
-        <v>3254.8200000000002</v>
+        <v>432.75</v>
       </c>
       <c r="P89" s="10">
         <f t="shared" si="4"/>
-        <v>-1.900000000000091</v>
+        <v>0.19999999999998863</v>
       </c>
       <c r="Q89" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="90" ht="17.25" customHeight="1">
@@ -6323,57 +6311,57 @@
         <v>17</v>
       </c>
       <c r="B90" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C90" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="E90" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F90" s="9">
-        <v>22864.389999999999</v>
+        <v>22904.389999999999</v>
       </c>
       <c r="G90" s="9">
         <v>0</v>
       </c>
       <c r="H90" s="9">
         <f t="shared" si="0"/>
-        <v>22864.389999999999</v>
+        <v>22904.389999999999</v>
       </c>
       <c r="I90" s="10">
         <v>1</v>
       </c>
       <c r="J90" s="9">
         <f t="shared" si="1"/>
-        <v>22864.389999999999</v>
+        <v>22904.389999999999</v>
       </c>
       <c r="K90" s="9">
-        <v>22864.389999999999</v>
+        <v>22904.389999999999</v>
       </c>
       <c r="L90" s="9">
         <v>0</v>
       </c>
       <c r="M90" s="9">
         <f t="shared" si="2"/>
-        <v>22864.389999999999</v>
+        <v>22904.389999999999</v>
       </c>
       <c r="N90" s="10">
         <v>1</v>
       </c>
       <c r="O90" s="9">
         <f t="shared" si="3"/>
-        <v>22864.389999999999</v>
+        <v>22904.389999999999</v>
       </c>
       <c r="P90" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q90" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="91" ht="17.25" customHeight="1">
@@ -6381,57 +6369,57 @@
         <v>17</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C91" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E91" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F91" s="9">
-        <v>201610.5</v>
+        <v>201710.5</v>
       </c>
       <c r="G91" s="9">
         <v>0</v>
       </c>
       <c r="H91" s="9">
         <f t="shared" si="0"/>
-        <v>201610.5</v>
+        <v>201710.5</v>
       </c>
       <c r="I91" s="10">
         <v>1</v>
       </c>
       <c r="J91" s="9">
         <f t="shared" si="1"/>
-        <v>201610.5</v>
+        <v>201710.5</v>
       </c>
       <c r="K91" s="9">
-        <v>201610.5</v>
+        <v>201710.5</v>
       </c>
       <c r="L91" s="9">
         <v>0</v>
       </c>
       <c r="M91" s="9">
         <f t="shared" si="2"/>
-        <v>201610.5</v>
+        <v>201710.5</v>
       </c>
       <c r="N91" s="10">
         <v>1</v>
       </c>
       <c r="O91" s="9">
         <f t="shared" si="3"/>
-        <v>201610.5</v>
+        <v>201710.5</v>
       </c>
       <c r="P91" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q91" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="92" ht="17.25" customHeight="1">
@@ -6439,57 +6427,57 @@
         <v>17</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C92" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E92" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F92" s="9">
-        <v>82201.520000000004</v>
+        <v>82351.520000000004</v>
       </c>
       <c r="G92" s="9">
         <v>0</v>
       </c>
       <c r="H92" s="9">
         <f t="shared" si="0"/>
-        <v>82201.520000000004</v>
+        <v>82351.520000000004</v>
       </c>
       <c r="I92" s="10">
         <v>1</v>
       </c>
       <c r="J92" s="9">
         <f t="shared" si="1"/>
-        <v>82201.520000000004</v>
+        <v>82351.520000000004</v>
       </c>
       <c r="K92" s="9">
-        <v>82201.520000000004</v>
+        <v>82351.520000000004</v>
       </c>
       <c r="L92" s="9">
         <v>0</v>
       </c>
       <c r="M92" s="9">
         <f t="shared" si="2"/>
-        <v>82201.520000000004</v>
+        <v>82351.520000000004</v>
       </c>
       <c r="N92" s="10">
         <v>1</v>
       </c>
       <c r="O92" s="9">
         <f t="shared" si="3"/>
-        <v>82201.520000000004</v>
+        <v>82351.520000000004</v>
       </c>
       <c r="P92" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q92" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="93" ht="17.25" customHeight="1">
@@ -6497,57 +6485,57 @@
         <v>17</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C93" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="E93" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F93" s="9">
-        <v>11130</v>
+        <v>11180</v>
       </c>
       <c r="G93" s="9">
         <v>0</v>
       </c>
       <c r="H93" s="9">
         <f t="shared" si="0"/>
-        <v>11130</v>
+        <v>11180</v>
       </c>
       <c r="I93" s="10">
         <v>1</v>
       </c>
       <c r="J93" s="9">
         <f t="shared" si="1"/>
-        <v>11130</v>
+        <v>11180</v>
       </c>
       <c r="K93" s="9">
-        <v>11130</v>
+        <v>11180</v>
       </c>
       <c r="L93" s="9">
         <v>0</v>
       </c>
       <c r="M93" s="9">
         <f t="shared" si="2"/>
-        <v>11130</v>
+        <v>11180</v>
       </c>
       <c r="N93" s="10">
         <v>1</v>
       </c>
       <c r="O93" s="9">
         <f t="shared" si="3"/>
-        <v>11130</v>
+        <v>11180</v>
       </c>
       <c r="P93" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q93" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="94" ht="17.25" customHeight="1">
@@ -6555,57 +6543,57 @@
         <v>17</v>
       </c>
       <c r="B94" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E94" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F94" s="9">
-        <v>13308</v>
+        <v>13358</v>
       </c>
       <c r="G94" s="9">
         <v>0</v>
       </c>
       <c r="H94" s="9">
         <f t="shared" si="0"/>
-        <v>13308</v>
+        <v>13358</v>
       </c>
       <c r="I94" s="10">
         <v>1</v>
       </c>
       <c r="J94" s="9">
         <f t="shared" si="1"/>
-        <v>13308</v>
+        <v>13358</v>
       </c>
       <c r="K94" s="9">
-        <v>13308</v>
+        <v>13358</v>
       </c>
       <c r="L94" s="9">
         <v>0</v>
       </c>
       <c r="M94" s="9">
         <f t="shared" si="2"/>
-        <v>13308</v>
+        <v>13358</v>
       </c>
       <c r="N94" s="10">
         <v>1</v>
       </c>
       <c r="O94" s="9">
         <f t="shared" si="3"/>
-        <v>13308</v>
+        <v>13358</v>
       </c>
       <c r="P94" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q94" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="95" ht="17.25" customHeight="1">
@@ -6613,57 +6601,57 @@
         <v>17</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C95" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E95" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F95" s="9">
-        <v>48076.360000000001</v>
+        <v>48706.339999999997</v>
       </c>
       <c r="G95" s="9">
         <v>0</v>
       </c>
       <c r="H95" s="9">
         <f t="shared" si="0"/>
-        <v>48076.360000000001</v>
+        <v>48706.339999999997</v>
       </c>
       <c r="I95" s="10">
         <v>1</v>
       </c>
       <c r="J95" s="9">
         <f t="shared" si="1"/>
-        <v>48076.360000000001</v>
+        <v>48706.339999999997</v>
       </c>
       <c r="K95" s="9">
-        <v>48076.360000000001</v>
+        <v>48706.339999999997</v>
       </c>
       <c r="L95" s="9">
         <v>0</v>
       </c>
       <c r="M95" s="9">
         <f t="shared" si="2"/>
-        <v>48076.360000000001</v>
+        <v>48706.339999999997</v>
       </c>
       <c r="N95" s="10">
         <v>1</v>
       </c>
       <c r="O95" s="9">
         <f t="shared" si="3"/>
-        <v>48076.360000000001</v>
+        <v>48706.339999999997</v>
       </c>
       <c r="P95" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q95" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="96" ht="17.25" customHeight="1">
@@ -6671,57 +6659,57 @@
         <v>17</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C96" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E96" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F96" s="9">
-        <v>9574.4200000000001</v>
+        <v>20346.490000000002</v>
       </c>
       <c r="G96" s="9">
         <v>0</v>
       </c>
       <c r="H96" s="9">
         <f t="shared" si="0"/>
-        <v>9574.4200000000001</v>
+        <v>20346.490000000002</v>
       </c>
       <c r="I96" s="10">
         <v>1</v>
       </c>
       <c r="J96" s="9">
         <f t="shared" si="1"/>
-        <v>9574.4200000000001</v>
+        <v>20346.490000000002</v>
       </c>
       <c r="K96" s="9">
-        <v>9574.4200000000001</v>
+        <v>20346.490000000002</v>
       </c>
       <c r="L96" s="9">
         <v>0</v>
       </c>
       <c r="M96" s="9">
         <f t="shared" si="2"/>
-        <v>9574.4200000000001</v>
+        <v>20346.490000000002</v>
       </c>
       <c r="N96" s="10">
         <v>1</v>
       </c>
       <c r="O96" s="9">
         <f t="shared" si="3"/>
-        <v>9574.4200000000001</v>
+        <v>20346.490000000002</v>
       </c>
       <c r="P96" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q96" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="97" ht="17.25" customHeight="1">
@@ -6729,57 +6717,57 @@
         <v>17</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C97" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E97" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F97" s="9">
-        <v>31865.400000000001</v>
+        <v>649.39999999999998</v>
       </c>
       <c r="G97" s="9">
         <v>0</v>
       </c>
       <c r="H97" s="9">
         <f t="shared" si="0"/>
-        <v>31865.400000000001</v>
+        <v>649.39999999999998</v>
       </c>
       <c r="I97" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J97" s="9">
         <f t="shared" si="1"/>
-        <v>28559.619999999999</v>
+        <v>578.26999999999998</v>
       </c>
       <c r="K97" s="9">
-        <v>31865.400000000001</v>
+        <v>649.39999999999998</v>
       </c>
       <c r="L97" s="9">
         <v>0</v>
       </c>
       <c r="M97" s="9">
         <f t="shared" si="2"/>
-        <v>31865.400000000001</v>
+        <v>649.39999999999998</v>
       </c>
       <c r="N97" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O97" s="9">
         <f t="shared" si="3"/>
-        <v>28576.27</v>
+        <v>578.01999999999998</v>
       </c>
       <c r="P97" s="10">
         <f t="shared" si="4"/>
-        <v>-16.650000000001455</v>
+        <v>0.25</v>
       </c>
       <c r="Q97" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="98" ht="17.25" customHeight="1">
@@ -6787,57 +6775,57 @@
         <v>17</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E98" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F98" s="9">
-        <v>14014.700000000001</v>
+        <v>19698.599999999999</v>
       </c>
       <c r="G98" s="9">
         <v>0</v>
       </c>
       <c r="H98" s="9">
         <f t="shared" si="0"/>
-        <v>14014.700000000001</v>
+        <v>19698.599999999999</v>
       </c>
       <c r="I98" s="10">
         <v>1</v>
       </c>
       <c r="J98" s="9">
         <f t="shared" si="1"/>
-        <v>14014.700000000001</v>
+        <v>19698.599999999999</v>
       </c>
       <c r="K98" s="9">
-        <v>14014.700000000001</v>
+        <v>19698.599999999999</v>
       </c>
       <c r="L98" s="9">
         <v>0</v>
       </c>
       <c r="M98" s="9">
         <f t="shared" si="2"/>
-        <v>14014.700000000001</v>
+        <v>19698.599999999999</v>
       </c>
       <c r="N98" s="10">
         <v>1</v>
       </c>
       <c r="O98" s="9">
         <f t="shared" si="3"/>
-        <v>14014.700000000001</v>
+        <v>19698.599999999999</v>
       </c>
       <c r="P98" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q98" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="99" ht="17.25" customHeight="1">
@@ -6845,57 +6833,57 @@
         <v>17</v>
       </c>
       <c r="B99" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C99" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E99" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F99" s="9">
-        <v>16693.41</v>
+        <v>30360.41</v>
       </c>
       <c r="G99" s="9">
         <v>0</v>
       </c>
       <c r="H99" s="9">
         <f t="shared" si="0"/>
-        <v>16693.41</v>
+        <v>30360.41</v>
       </c>
       <c r="I99" s="10">
         <v>1</v>
       </c>
       <c r="J99" s="9">
         <f t="shared" si="1"/>
-        <v>16693.41</v>
+        <v>30360.41</v>
       </c>
       <c r="K99" s="9">
-        <v>16693.41</v>
+        <v>30360.41</v>
       </c>
       <c r="L99" s="9">
         <v>0</v>
       </c>
       <c r="M99" s="9">
         <f t="shared" si="2"/>
-        <v>16693.41</v>
+        <v>30360.41</v>
       </c>
       <c r="N99" s="10">
         <v>1</v>
       </c>
       <c r="O99" s="9">
         <f t="shared" si="3"/>
-        <v>16693.41</v>
+        <v>30360.41</v>
       </c>
       <c r="P99" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q99" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="100" ht="17.25" customHeight="1">
@@ -6903,57 +6891,57 @@
         <v>17</v>
       </c>
       <c r="B100" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C100" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E100" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F100" s="9">
-        <v>15815.799999999999</v>
+        <v>16245.799999999999</v>
       </c>
       <c r="G100" s="9">
         <v>0</v>
       </c>
       <c r="H100" s="9">
         <f t="shared" si="0"/>
-        <v>15815.799999999999</v>
+        <v>16245.799999999999</v>
       </c>
       <c r="I100" s="10">
         <v>1</v>
       </c>
       <c r="J100" s="9">
         <f t="shared" si="1"/>
-        <v>15815.799999999999</v>
+        <v>16245.799999999999</v>
       </c>
       <c r="K100" s="9">
-        <v>15815.799999999999</v>
+        <v>16245.799999999999</v>
       </c>
       <c r="L100" s="9">
         <v>0</v>
       </c>
       <c r="M100" s="9">
         <f t="shared" si="2"/>
-        <v>15815.799999999999</v>
+        <v>16245.799999999999</v>
       </c>
       <c r="N100" s="10">
         <v>1</v>
       </c>
       <c r="O100" s="9">
         <f t="shared" si="3"/>
-        <v>15815.799999999999</v>
+        <v>16245.799999999999</v>
       </c>
       <c r="P100" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q100" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="101" ht="17.25" customHeight="1">
@@ -6961,57 +6949,57 @@
         <v>17</v>
       </c>
       <c r="B101" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C101" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E101" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F101" s="9">
-        <v>438770.15999999997</v>
+        <v>479801.91999999998</v>
       </c>
       <c r="G101" s="9">
         <v>0</v>
       </c>
       <c r="H101" s="9">
         <f t="shared" si="0"/>
-        <v>438770.15999999997</v>
+        <v>479801.91999999998</v>
       </c>
       <c r="I101" s="10">
         <v>1</v>
       </c>
       <c r="J101" s="9">
         <f t="shared" si="1"/>
-        <v>438770.15999999997</v>
+        <v>479801.91999999998</v>
       </c>
       <c r="K101" s="9">
-        <v>438770.15999999997</v>
+        <v>479801.91999999998</v>
       </c>
       <c r="L101" s="9">
         <v>0</v>
       </c>
       <c r="M101" s="9">
         <f t="shared" si="2"/>
-        <v>438770.15999999997</v>
+        <v>479801.91999999998</v>
       </c>
       <c r="N101" s="10">
         <v>1</v>
       </c>
       <c r="O101" s="9">
         <f t="shared" si="3"/>
-        <v>438770.15999999997</v>
+        <v>479801.91999999998</v>
       </c>
       <c r="P101" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q101" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="102" ht="17.25" customHeight="1">
@@ -7019,57 +7007,57 @@
         <v>17</v>
       </c>
       <c r="B102" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C102" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E102" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F102" s="9">
-        <v>99825</v>
+        <v>99875</v>
       </c>
       <c r="G102" s="9">
         <v>0</v>
       </c>
       <c r="H102" s="9">
         <f t="shared" si="0"/>
-        <v>99825</v>
+        <v>99875</v>
       </c>
       <c r="I102" s="10">
         <v>1</v>
       </c>
       <c r="J102" s="9">
         <f t="shared" si="1"/>
-        <v>99825</v>
+        <v>99875</v>
       </c>
       <c r="K102" s="9">
-        <v>99825</v>
+        <v>99875</v>
       </c>
       <c r="L102" s="9">
         <v>0</v>
       </c>
       <c r="M102" s="9">
         <f t="shared" si="2"/>
-        <v>99825</v>
+        <v>99875</v>
       </c>
       <c r="N102" s="10">
         <v>1</v>
       </c>
       <c r="O102" s="9">
         <f t="shared" si="3"/>
-        <v>99825</v>
+        <v>99875</v>
       </c>
       <c r="P102" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q102" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="103" ht="17.25" customHeight="1">
@@ -7077,57 +7065,57 @@
         <v>17</v>
       </c>
       <c r="B103" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C103" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D103" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E103" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F103" s="9">
-        <v>214438.35999999999</v>
+        <v>118299.78999999999</v>
       </c>
       <c r="G103" s="9">
         <v>0</v>
       </c>
       <c r="H103" s="9">
         <f t="shared" si="0"/>
-        <v>214438.35999999999</v>
+        <v>118299.78999999999</v>
       </c>
       <c r="I103" s="10">
         <v>1</v>
       </c>
       <c r="J103" s="9">
         <f t="shared" si="1"/>
-        <v>214438.35999999999</v>
+        <v>118299.78999999999</v>
       </c>
       <c r="K103" s="9">
-        <v>214438.35999999999</v>
+        <v>118299.78999999999</v>
       </c>
       <c r="L103" s="9">
         <v>0</v>
       </c>
       <c r="M103" s="9">
         <f t="shared" si="2"/>
-        <v>214438.35999999999</v>
+        <v>118299.78999999999</v>
       </c>
       <c r="N103" s="10">
         <v>1</v>
       </c>
       <c r="O103" s="9">
         <f t="shared" si="3"/>
-        <v>214438.35999999999</v>
+        <v>118299.78999999999</v>
       </c>
       <c r="P103" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q103" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="104" ht="17.25" customHeight="1">
@@ -7135,57 +7123,57 @@
         <v>17</v>
       </c>
       <c r="B104" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C104" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E104" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F104" s="9">
-        <v>4644.0299999999997</v>
+        <v>5287.2399999999998</v>
       </c>
       <c r="G104" s="9">
         <v>0</v>
       </c>
       <c r="H104" s="9">
         <f t="shared" si="0"/>
-        <v>4644.0299999999997</v>
+        <v>5287.2399999999998</v>
       </c>
       <c r="I104" s="10">
         <v>1</v>
       </c>
       <c r="J104" s="9">
         <f t="shared" si="1"/>
-        <v>4644.0299999999997</v>
+        <v>5287.2399999999998</v>
       </c>
       <c r="K104" s="9">
-        <v>4644.0299999999997</v>
+        <v>5287.2399999999998</v>
       </c>
       <c r="L104" s="9">
         <v>0</v>
       </c>
       <c r="M104" s="9">
         <f t="shared" si="2"/>
-        <v>4644.0299999999997</v>
+        <v>5287.2399999999998</v>
       </c>
       <c r="N104" s="10">
         <v>1</v>
       </c>
       <c r="O104" s="9">
         <f t="shared" si="3"/>
-        <v>4644.0299999999997</v>
+        <v>5287.2399999999998</v>
       </c>
       <c r="P104" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q104" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="105" ht="17.25" customHeight="1">
@@ -7193,57 +7181,57 @@
         <v>17</v>
       </c>
       <c r="B105" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C105" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E105" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F105" s="9">
-        <v>105.94</v>
+        <v>5732.6400000000003</v>
       </c>
       <c r="G105" s="9">
         <v>0</v>
       </c>
       <c r="H105" s="9">
         <f t="shared" si="0"/>
-        <v>105.94</v>
+        <v>5732.6400000000003</v>
       </c>
       <c r="I105" s="10">
         <v>1</v>
       </c>
       <c r="J105" s="9">
         <f t="shared" si="1"/>
-        <v>105.94</v>
+        <v>5732.6400000000003</v>
       </c>
       <c r="K105" s="9">
-        <v>105.94</v>
+        <v>5732.6400000000003</v>
       </c>
       <c r="L105" s="9">
         <v>0</v>
       </c>
       <c r="M105" s="9">
         <f t="shared" si="2"/>
-        <v>105.94</v>
+        <v>5732.6400000000003</v>
       </c>
       <c r="N105" s="10">
         <v>1</v>
       </c>
       <c r="O105" s="9">
         <f t="shared" si="3"/>
-        <v>105.94</v>
+        <v>5732.6400000000003</v>
       </c>
       <c r="P105" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q105" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="106" ht="17.25" customHeight="1">
@@ -7251,57 +7239,57 @@
         <v>17</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C106" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E106" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F106" s="9">
-        <v>1067893.1599999999</v>
+        <v>1631514.6799999999</v>
       </c>
       <c r="G106" s="9">
         <v>0</v>
       </c>
       <c r="H106" s="9">
         <f t="shared" si="0"/>
-        <v>1067893.1599999999</v>
+        <v>1631514.6799999999</v>
       </c>
       <c r="I106" s="10">
         <v>1</v>
       </c>
       <c r="J106" s="9">
         <f t="shared" si="1"/>
-        <v>1067893.1599999999</v>
+        <v>1631514.6799999999</v>
       </c>
       <c r="K106" s="9">
-        <v>1067893.1599999999</v>
+        <v>1631514.6799999999</v>
       </c>
       <c r="L106" s="9">
         <v>0</v>
       </c>
       <c r="M106" s="9">
         <f t="shared" si="2"/>
-        <v>1067893.1599999999</v>
+        <v>1631514.6799999999</v>
       </c>
       <c r="N106" s="10">
         <v>1</v>
       </c>
       <c r="O106" s="9">
         <f t="shared" si="3"/>
-        <v>1067893.1599999999</v>
+        <v>1631514.6799999999</v>
       </c>
       <c r="P106" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q106" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="107" ht="17.25" customHeight="1">
@@ -7309,57 +7297,57 @@
         <v>17</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E107" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F107" s="9">
-        <v>574817.43000000005</v>
+        <v>290609.84999999998</v>
       </c>
       <c r="G107" s="9">
         <v>0</v>
       </c>
       <c r="H107" s="9">
         <f t="shared" si="0"/>
-        <v>574817.43000000005</v>
+        <v>290609.84999999998</v>
       </c>
       <c r="I107" s="10">
-        <v>7.7439</v>
+        <v>7.5395000000000003</v>
       </c>
       <c r="J107" s="9">
         <f t="shared" si="1"/>
-        <v>74228.419999999998</v>
+        <v>38544.980000000003</v>
       </c>
       <c r="K107" s="9">
-        <v>574817.43000000005</v>
+        <v>290609.84999999998</v>
       </c>
       <c r="L107" s="9">
         <v>0</v>
       </c>
       <c r="M107" s="9">
         <f t="shared" si="2"/>
-        <v>574817.43000000005</v>
+        <v>290609.84999999998</v>
       </c>
       <c r="N107" s="10">
-        <v>7.7045000000000003</v>
+        <v>7.5396999999999998</v>
       </c>
       <c r="O107" s="9">
         <f t="shared" si="3"/>
-        <v>74608.009999999995</v>
+        <v>38543.949999999997</v>
       </c>
       <c r="P107" s="10">
         <f t="shared" si="4"/>
-        <v>-379.58999999999651</v>
+        <v>1.0300000000061118</v>
       </c>
       <c r="Q107" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="108" ht="17.25" customHeight="1">
@@ -7367,57 +7355,57 @@
         <v>17</v>
       </c>
       <c r="B108" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D108" s="7" t="s">
         <v>221</v>
-      </c>
-      <c r="C108" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D108" s="7" t="s">
-        <v>220</v>
       </c>
       <c r="E108" s="8" t="s">
         <v>25</v>
       </c>
       <c r="F108" s="9">
-        <v>11184.16</v>
+        <v>20271.580000000002</v>
       </c>
       <c r="G108" s="9">
         <v>0</v>
       </c>
       <c r="H108" s="9">
         <f t="shared" si="0"/>
-        <v>11184.16</v>
+        <v>20271.580000000002</v>
       </c>
       <c r="I108" s="10">
-        <v>1.11575</v>
+        <v>1.123</v>
       </c>
       <c r="J108" s="9">
         <f t="shared" si="1"/>
-        <v>10023.889999999999</v>
+        <v>18051.27</v>
       </c>
       <c r="K108" s="9">
-        <v>11184.16</v>
+        <v>20271.580000000002</v>
       </c>
       <c r="L108" s="9">
         <v>0</v>
       </c>
       <c r="M108" s="9">
         <f t="shared" si="2"/>
-        <v>11184.16</v>
+        <v>20271.580000000002</v>
       </c>
       <c r="N108" s="10">
-        <v>1.1151</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O108" s="9">
         <f t="shared" si="3"/>
-        <v>10029.74</v>
+        <v>18043.240000000002</v>
       </c>
       <c r="P108" s="10">
         <f t="shared" si="4"/>
-        <v>-5.8500000000003638</v>
+        <v>8.0299999999988358</v>
       </c>
       <c r="Q108" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="109" ht="17.25" customHeight="1">
@@ -7425,57 +7413,57 @@
         <v>17</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C109" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E109" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F109" s="9">
-        <v>915582.73999999999</v>
+        <v>4409385.5099999998</v>
       </c>
       <c r="G109" s="9">
         <v>0</v>
       </c>
       <c r="H109" s="9">
         <f t="shared" si="0"/>
-        <v>915582.73999999999</v>
+        <v>4409385.5099999998</v>
       </c>
       <c r="I109" s="10">
         <v>1</v>
       </c>
       <c r="J109" s="9">
         <f t="shared" si="1"/>
-        <v>915582.73999999999</v>
+        <v>4409385.5099999998</v>
       </c>
       <c r="K109" s="9">
-        <v>915582.73999999999</v>
+        <v>4409385.5099999998</v>
       </c>
       <c r="L109" s="9">
         <v>0</v>
       </c>
       <c r="M109" s="9">
         <f t="shared" si="2"/>
-        <v>915582.73999999999</v>
+        <v>4409385.5099999998</v>
       </c>
       <c r="N109" s="10">
         <v>1</v>
       </c>
       <c r="O109" s="9">
         <f t="shared" si="3"/>
-        <v>915582.73999999999</v>
+        <v>4409385.5099999998</v>
       </c>
       <c r="P109" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q109" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="110" ht="17.25" customHeight="1">
@@ -7483,57 +7471,57 @@
         <v>17</v>
       </c>
       <c r="B110" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C110" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E110" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F110" s="9">
-        <v>100125</v>
+        <v>100225</v>
       </c>
       <c r="G110" s="9">
         <v>0</v>
       </c>
       <c r="H110" s="9">
         <f t="shared" si="0"/>
-        <v>100125</v>
+        <v>100225</v>
       </c>
       <c r="I110" s="10">
         <v>1</v>
       </c>
       <c r="J110" s="9">
         <f t="shared" si="1"/>
-        <v>100125</v>
+        <v>100225</v>
       </c>
       <c r="K110" s="9">
-        <v>100125</v>
+        <v>100225</v>
       </c>
       <c r="L110" s="9">
         <v>0</v>
       </c>
       <c r="M110" s="9">
         <f t="shared" si="2"/>
-        <v>100125</v>
+        <v>100225</v>
       </c>
       <c r="N110" s="10">
         <v>1</v>
       </c>
       <c r="O110" s="9">
         <f t="shared" si="3"/>
-        <v>100125</v>
+        <v>100225</v>
       </c>
       <c r="P110" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q110" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="111" ht="17.25" customHeight="1">
@@ -7541,57 +7529,57 @@
         <v>17</v>
       </c>
       <c r="B111" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C111" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E111" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F111" s="9">
-        <v>82110.339999999997</v>
+        <v>344.83999999999997</v>
       </c>
       <c r="G111" s="9">
         <v>0</v>
       </c>
       <c r="H111" s="9">
         <f t="shared" si="0"/>
-        <v>82110.339999999997</v>
+        <v>344.83999999999997</v>
       </c>
       <c r="I111" s="10">
         <v>1</v>
       </c>
       <c r="J111" s="9">
         <f t="shared" si="1"/>
-        <v>82110.339999999997</v>
+        <v>344.83999999999997</v>
       </c>
       <c r="K111" s="9">
-        <v>82110.339999999997</v>
+        <v>344.83999999999997</v>
       </c>
       <c r="L111" s="9">
         <v>0</v>
       </c>
       <c r="M111" s="9">
         <f t="shared" si="2"/>
-        <v>82110.339999999997</v>
+        <v>344.83999999999997</v>
       </c>
       <c r="N111" s="10">
         <v>1</v>
       </c>
       <c r="O111" s="9">
         <f t="shared" si="3"/>
-        <v>82110.339999999997</v>
+        <v>344.83999999999997</v>
       </c>
       <c r="P111" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q111" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="112" ht="17.25" customHeight="1">
@@ -7599,187 +7587,187 @@
         <v>17</v>
       </c>
       <c r="B112" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E112" s="8" t="s">
         <v>71</v>
       </c>
       <c r="F112" s="9">
-        <v>21860.459999999999</v>
+        <v>20157.169999999998</v>
       </c>
       <c r="G112" s="9">
         <v>0</v>
       </c>
       <c r="H112" s="9">
         <f t="shared" si="0"/>
-        <v>21860.459999999999</v>
+        <v>20157.169999999998</v>
       </c>
       <c r="I112" s="10">
-        <v>7.7439</v>
+        <v>7.5395000000000003</v>
       </c>
       <c r="J112" s="9">
         <f t="shared" si="1"/>
-        <v>2822.9299999999998</v>
+        <v>2673.54</v>
       </c>
       <c r="K112" s="9">
-        <v>21860.459999999999</v>
+        <v>20157.169999999998</v>
       </c>
       <c r="L112" s="9">
         <v>0</v>
       </c>
       <c r="M112" s="9">
         <f t="shared" si="2"/>
-        <v>21860.459999999999</v>
+        <v>20157.169999999998</v>
       </c>
       <c r="N112" s="10">
-        <v>7.7045000000000003</v>
+        <v>7.5396999999999998</v>
       </c>
       <c r="O112" s="9">
         <f t="shared" si="3"/>
-        <v>2837.3600000000001</v>
+        <v>2673.4699999999998</v>
       </c>
       <c r="P112" s="10">
         <f t="shared" si="4"/>
-        <v>-14.430000000000291</v>
+        <v>0.070000000000163709</v>
       </c>
       <c r="Q112" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="113" ht="17.25" customHeight="1">
       <c r="A113" s="7" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="B113" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="E113" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F113" s="9">
-        <v>10000</v>
+        <v>25000000</v>
       </c>
       <c r="G113" s="9">
-        <v>0</v>
+        <v>-520.83000000000004</v>
       </c>
       <c r="H113" s="9">
         <f t="shared" si="0"/>
-        <v>10000</v>
+        <v>24999479.170000002</v>
       </c>
       <c r="I113" s="10">
         <v>1</v>
       </c>
       <c r="J113" s="9">
         <f t="shared" si="1"/>
-        <v>10000</v>
+        <v>24999479.170000002</v>
       </c>
       <c r="K113" s="9">
-        <v>10000</v>
+        <v>25000000</v>
       </c>
       <c r="L113" s="9">
-        <v>0</v>
+        <v>-416.67000000000002</v>
       </c>
       <c r="M113" s="9">
         <f t="shared" si="2"/>
-        <v>10000</v>
+        <v>24999583.329999998</v>
       </c>
       <c r="N113" s="10">
         <v>1</v>
       </c>
       <c r="O113" s="9">
         <f t="shared" si="3"/>
-        <v>10000</v>
+        <v>24999583.329999998</v>
       </c>
       <c r="P113" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-104.15999999642372</v>
       </c>
       <c r="Q113" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="114" ht="17.25" customHeight="1">
       <c r="A114" s="7" t="s">
-        <v>17</v>
+        <v>230</v>
       </c>
       <c r="B114" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>19</v>
+        <v>232</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="E114" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F114" s="9">
-        <v>24733</v>
+        <v>40000000</v>
       </c>
       <c r="G114" s="9">
-        <v>0</v>
+        <v>-833.33000000000004</v>
       </c>
       <c r="H114" s="9">
         <f t="shared" si="0"/>
-        <v>24733</v>
+        <v>39999166.670000002</v>
       </c>
       <c r="I114" s="10">
         <v>1</v>
       </c>
       <c r="J114" s="9">
         <f t="shared" si="1"/>
-        <v>24733</v>
+        <v>39999166.670000002</v>
       </c>
       <c r="K114" s="9">
-        <v>24733</v>
+        <v>40000000</v>
       </c>
       <c r="L114" s="9">
-        <v>0</v>
+        <v>-666.66999999999996</v>
       </c>
       <c r="M114" s="9">
         <f t="shared" si="2"/>
-        <v>24733</v>
+        <v>39999333.329999998</v>
       </c>
       <c r="N114" s="10">
         <v>1</v>
       </c>
       <c r="O114" s="9">
         <f t="shared" si="3"/>
-        <v>24733</v>
+        <v>39999333.329999998</v>
       </c>
       <c r="P114" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>-166.65999999642372</v>
       </c>
       <c r="Q114" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="115" ht="17.25" customHeight="1">
       <c r="A115" s="7" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="B115" s="7" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E115" s="8" t="s">
         <v>21</v>
@@ -7788,100 +7776,100 @@
         <v>25000000</v>
       </c>
       <c r="G115" s="9">
-        <v>-6875</v>
+        <v>26111.110000000001</v>
       </c>
       <c r="H115" s="9">
         <f t="shared" si="0"/>
-        <v>24993125</v>
+        <v>25026111.109999999</v>
       </c>
       <c r="I115" s="10">
         <v>1</v>
       </c>
       <c r="J115" s="9">
         <f t="shared" si="1"/>
-        <v>24993125</v>
+        <v>25026111.109999999</v>
       </c>
       <c r="K115" s="9">
         <v>25000000</v>
       </c>
       <c r="L115" s="9">
-        <v>-6770.8299999999999</v>
+        <v>26041.669999999998</v>
       </c>
       <c r="M115" s="9">
         <f t="shared" si="2"/>
-        <v>24993229.170000002</v>
+        <v>25026041.670000002</v>
       </c>
       <c r="N115" s="10">
         <v>1</v>
       </c>
       <c r="O115" s="9">
         <f t="shared" si="3"/>
-        <v>24993229.170000002</v>
+        <v>25026041.670000002</v>
       </c>
       <c r="P115" s="10">
         <f t="shared" si="4"/>
-        <v>-104.17000000178814</v>
+        <v>69.439999997615814</v>
       </c>
       <c r="Q115" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="116" ht="17.25" customHeight="1">
       <c r="A116" s="7" t="s">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="B116" s="7" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="E116" s="8" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F116" s="9">
-        <v>40000000</v>
+        <v>32023.619999999999</v>
       </c>
       <c r="G116" s="9">
-        <v>-11000</v>
+        <v>0</v>
       </c>
       <c r="H116" s="9">
         <f t="shared" si="0"/>
-        <v>39989000</v>
+        <v>32023.619999999999</v>
       </c>
       <c r="I116" s="10">
-        <v>1</v>
+        <v>1.123</v>
       </c>
       <c r="J116" s="9">
         <f t="shared" si="1"/>
-        <v>39989000</v>
+        <v>28516.139999999999</v>
       </c>
       <c r="K116" s="9">
-        <v>40000000</v>
+        <v>32023.619999999999</v>
       </c>
       <c r="L116" s="9">
-        <v>-10833.33</v>
+        <v>0</v>
       </c>
       <c r="M116" s="9">
         <f t="shared" si="2"/>
-        <v>39989166.670000002</v>
+        <v>32023.619999999999</v>
       </c>
       <c r="N116" s="10">
-        <v>1</v>
+        <v>1.1234999999999999</v>
       </c>
       <c r="O116" s="9">
         <f t="shared" si="3"/>
-        <v>39989166.670000002</v>
+        <v>28503.439999999999</v>
       </c>
       <c r="P116" s="10">
         <f t="shared" si="4"/>
-        <v>-166.67000000178814</v>
+        <v>12.700000000000728</v>
       </c>
       <c r="Q116" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="117" ht="17.25" customHeight="1">
@@ -7889,57 +7877,57 @@
         <v>239</v>
       </c>
       <c r="B117" s="7" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>241</v>
+        <v>213</v>
       </c>
       <c r="E117" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F117" s="9">
-        <v>25000000</v>
+        <v>37200</v>
       </c>
       <c r="G117" s="9">
-        <v>30347.220000000001</v>
+        <v>0</v>
       </c>
       <c r="H117" s="9">
         <f t="shared" si="0"/>
-        <v>25030347.219999999</v>
+        <v>37200</v>
       </c>
       <c r="I117" s="10">
         <v>1</v>
       </c>
       <c r="J117" s="9">
         <f t="shared" si="1"/>
-        <v>25030347.219999999</v>
+        <v>37200</v>
       </c>
       <c r="K117" s="9">
-        <v>25000000</v>
+        <v>37200</v>
       </c>
       <c r="L117" s="9">
-        <v>30277.779999999999</v>
+        <v>0</v>
       </c>
       <c r="M117" s="9">
         <f t="shared" si="2"/>
-        <v>25030277.780000001</v>
+        <v>37200</v>
       </c>
       <c r="N117" s="10">
         <v>1</v>
       </c>
       <c r="O117" s="9">
         <f t="shared" si="3"/>
-        <v>25030277.780000001</v>
+        <v>37200</v>
       </c>
       <c r="P117" s="10">
         <f t="shared" si="4"/>
-        <v>69.439999997615814</v>
+        <v>0</v>
       </c>
       <c r="Q117" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="118" ht="17.25" customHeight="1">
@@ -7947,232 +7935,115 @@
         <v>239</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E118" s="8" t="s">
         <v>21</v>
       </c>
       <c r="F118" s="9">
-        <v>27600</v>
+        <v>10200</v>
       </c>
       <c r="G118" s="9">
         <v>0</v>
       </c>
       <c r="H118" s="9">
         <f t="shared" si="0"/>
-        <v>27600</v>
+        <v>10200</v>
       </c>
       <c r="I118" s="10">
         <v>1</v>
       </c>
       <c r="J118" s="9">
         <f t="shared" si="1"/>
-        <v>27600</v>
+        <v>10200</v>
       </c>
       <c r="K118" s="9">
-        <v>27600</v>
+        <v>10200</v>
       </c>
       <c r="L118" s="9">
         <v>0</v>
       </c>
       <c r="M118" s="9">
         <f t="shared" si="2"/>
-        <v>27600</v>
+        <v>10200</v>
       </c>
       <c r="N118" s="10">
         <v>1</v>
       </c>
       <c r="O118" s="9">
         <f t="shared" si="3"/>
-        <v>27600</v>
+        <v>10200</v>
       </c>
       <c r="P118" s="10">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="Q118" s="11">
-        <v>43616</v>
+        <v>43555</v>
       </c>
     </row>
     <row r="119" ht="17.25" customHeight="1">
-      <c r="A119" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B119" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D119" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="E119" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="F119" s="9">
-        <v>32023.619999999999</v>
-      </c>
-      <c r="G119" s="9">
-        <v>0</v>
-      </c>
-      <c r="H119" s="9">
-        <f t="shared" si="0"/>
-        <v>32023.619999999999</v>
-      </c>
-      <c r="I119" s="10">
-        <v>1.11575</v>
-      </c>
-      <c r="J119" s="9">
-        <f t="shared" si="1"/>
-        <v>28701.43</v>
-      </c>
-      <c r="K119" s="9">
-        <v>32023.619999999999</v>
-      </c>
-      <c r="L119" s="9">
-        <v>0</v>
-      </c>
-      <c r="M119" s="9">
-        <f t="shared" si="2"/>
-        <v>32023.619999999999</v>
-      </c>
-      <c r="N119" s="10">
-        <v>1.1151</v>
-      </c>
-      <c r="O119" s="9">
-        <f t="shared" si="3"/>
-        <v>28718.16</v>
-      </c>
-      <c r="P119" s="10">
-        <f t="shared" si="4"/>
-        <v>-16.729999999999563</v>
-      </c>
-      <c r="Q119" s="11">
-        <v>43616</v>
-      </c>
+      <c r="A119" s="7"/>
+      <c r="B119" s="7"/>
+      <c r="C119" s="8"/>
+      <c r="D119" s="7"/>
+      <c r="E119" s="8"/>
+      <c r="F119" s="9"/>
+      <c r="G119" s="9"/>
+      <c r="H119" s="9"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="9"/>
+      <c r="K119" s="9"/>
+      <c r="L119" s="9"/>
+      <c r="M119" s="9"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="9"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="11"/>
     </row>
     <row r="120" ht="17.25" customHeight="1">
-      <c r="A120" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B120" s="7" t="s">
-        <v>246</v>
-      </c>
-      <c r="C120" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D120" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E120" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" s="9">
-        <v>37200</v>
-      </c>
-      <c r="G120" s="9">
-        <v>0</v>
-      </c>
-      <c r="H120" s="9">
-        <f t="shared" si="0"/>
-        <v>37200</v>
-      </c>
-      <c r="I120" s="10">
-        <v>1</v>
-      </c>
-      <c r="J120" s="9">
-        <f t="shared" si="1"/>
-        <v>37200</v>
-      </c>
-      <c r="K120" s="9">
-        <v>37200</v>
-      </c>
-      <c r="L120" s="9">
-        <v>0</v>
-      </c>
-      <c r="M120" s="9">
-        <f t="shared" si="2"/>
-        <v>37200</v>
-      </c>
-      <c r="N120" s="10">
-        <v>1</v>
-      </c>
-      <c r="O120" s="9">
-        <f t="shared" si="3"/>
-        <v>37200</v>
-      </c>
-      <c r="P120" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q120" s="11">
-        <v>43616</v>
-      </c>
+      <c r="A120" s="7"/>
+      <c r="B120" s="7"/>
+      <c r="C120" s="8"/>
+      <c r="D120" s="7"/>
+      <c r="E120" s="8"/>
+      <c r="F120" s="9"/>
+      <c r="G120" s="9"/>
+      <c r="H120" s="9"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="9"/>
+      <c r="K120" s="9"/>
+      <c r="L120" s="9"/>
+      <c r="M120" s="9"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="9"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="11"/>
     </row>
     <row r="121" ht="17.25" customHeight="1">
-      <c r="A121" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="B121" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="C121" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D121" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="E121" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="F121" s="9">
-        <v>10200</v>
-      </c>
-      <c r="G121" s="9">
-        <v>0</v>
-      </c>
-      <c r="H121" s="9">
-        <f t="shared" si="0"/>
-        <v>10200</v>
-      </c>
-      <c r="I121" s="10">
-        <v>1</v>
-      </c>
-      <c r="J121" s="9">
-        <f t="shared" si="1"/>
-        <v>10200</v>
-      </c>
-      <c r="K121" s="9">
-        <v>10200</v>
-      </c>
-      <c r="L121" s="9">
-        <v>0</v>
-      </c>
-      <c r="M121" s="9">
-        <f t="shared" si="2"/>
-        <v>10200</v>
-      </c>
-      <c r="N121" s="10">
-        <v>1</v>
-      </c>
-      <c r="O121" s="9">
-        <f t="shared" si="3"/>
-        <v>10200</v>
-      </c>
-      <c r="P121" s="10">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Q121" s="11">
-        <v>43616</v>
-      </c>
+      <c r="A121" s="7"/>
+      <c r="B121" s="7"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="7"/>
+      <c r="E121" s="8"/>
+      <c r="F121" s="9"/>
+      <c r="G121" s="9"/>
+      <c r="H121" s="9"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="9"/>
+      <c r="K121" s="9"/>
+      <c r="L121" s="9"/>
+      <c r="M121" s="9"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="9"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="11"/>
     </row>
     <row r="122" ht="17.25" customHeight="1">
       <c r="A122" s="7"/>
